--- a/JupyterNotebooks/AvgHW/Alpha1F-HW05.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha1F-HW05.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,28 +82,28 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
     <t>[1, 1, 0]</t>
-  </si>
-  <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -552,58 +564,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -614,28 +626,28 @@
         <v>1</v>
       </c>
       <c r="C3">
+        <v>0.9603982863342367</v>
+      </c>
+      <c r="D3">
         <v>1.033295320830496</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0.9603982863342367</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.9568466131739304</v>
       </c>
-      <c r="F3">
-        <v>1.033295320830496</v>
-      </c>
       <c r="G3">
-        <v>0.9480679269782257</v>
+        <v>0.9952719105738961</v>
       </c>
       <c r="H3">
         <v>1.001687357152962</v>
       </c>
       <c r="I3">
-        <v>0.9952719105738961</v>
+        <v>0.9480679269782257</v>
       </c>
       <c r="J3">
-        <v>0.9603982863342367</v>
+        <v>1.033295320830496</v>
       </c>
       <c r="K3">
         <v>1.033295320830496</v>
@@ -676,28 +688,28 @@
         <v>2</v>
       </c>
       <c r="C4">
+        <v>0.9490389450926037</v>
+      </c>
+      <c r="D4">
         <v>1.078802738517202</v>
       </c>
-      <c r="D4">
-        <v>0.9490389450926033</v>
-      </c>
       <c r="E4">
+        <v>0.9490389450926037</v>
+      </c>
+      <c r="F4">
         <v>0.9374798231982281</v>
       </c>
-      <c r="F4">
-        <v>1.078802738517202</v>
-      </c>
       <c r="G4">
-        <v>0.9194045203581911</v>
+        <v>1.003098938229908</v>
       </c>
       <c r="H4">
         <v>0.9723475474058439</v>
       </c>
       <c r="I4">
-        <v>1.003098938229908</v>
+        <v>0.9194045203581911</v>
       </c>
       <c r="J4">
-        <v>0.9490389450926033</v>
+        <v>1.078802738517202</v>
       </c>
       <c r="K4">
         <v>1.078802738517202</v>
@@ -706,25 +718,25 @@
         <v>0.9374798231982281</v>
       </c>
       <c r="M4">
-        <v>0.9432593841454158</v>
+        <v>0.9432593841454159</v>
       </c>
       <c r="N4">
-        <v>0.9432593841454158</v>
+        <v>0.9432593841454159</v>
       </c>
       <c r="O4">
-        <v>0.9529554385655584</v>
+        <v>0.9529554385655586</v>
       </c>
       <c r="P4">
         <v>0.9884405022693444</v>
       </c>
       <c r="Q4">
-        <v>0.9884405022693442</v>
+        <v>0.9884405022693444</v>
       </c>
       <c r="R4">
-        <v>1.011031061331308</v>
+        <v>1.011031061331309</v>
       </c>
       <c r="S4">
-        <v>1.011031061331308</v>
+        <v>1.011031061331309</v>
       </c>
       <c r="T4">
         <v>0.9766954188003293</v>
@@ -738,28 +750,28 @@
         <v>3</v>
       </c>
       <c r="C5">
+        <v>0.5340260645028635</v>
+      </c>
+      <c r="D5">
         <v>1.245390163545357</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>0.5340260645028635</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>0.8115824054734082</v>
       </c>
-      <c r="F5">
+      <c r="G5">
+        <v>1.112894864222037</v>
+      </c>
+      <c r="H5">
+        <v>0.887117413513217</v>
+      </c>
+      <c r="I5">
+        <v>1.001665038562908</v>
+      </c>
+      <c r="J5">
         <v>1.245390163545357</v>
-      </c>
-      <c r="G5">
-        <v>1.001665038562908</v>
-      </c>
-      <c r="H5">
-        <v>0.8871174135132168</v>
-      </c>
-      <c r="I5">
-        <v>1.112894864222037</v>
-      </c>
-      <c r="J5">
-        <v>0.5340260645028635</v>
       </c>
       <c r="K5">
         <v>1.245390163545357</v>
@@ -800,28 +812,28 @@
         <v>4</v>
       </c>
       <c r="C6">
+        <v>0.2524654590984607</v>
+      </c>
+      <c r="D6">
         <v>1.53919425166635</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>0.2524654590984607</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>0.5076075292482196</v>
       </c>
-      <c r="F6">
-        <v>1.53919425166635</v>
-      </c>
       <c r="G6">
-        <v>0.7403039790582365</v>
+        <v>1.186726939150263</v>
       </c>
       <c r="H6">
         <v>0.908075979937792</v>
       </c>
       <c r="I6">
-        <v>1.186726939150263</v>
+        <v>0.7403039790582365</v>
       </c>
       <c r="J6">
-        <v>0.2524654590984607</v>
+        <v>1.53919425166635</v>
       </c>
       <c r="K6">
         <v>1.53919425166635</v>
@@ -862,58 +874,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.003455079705103</v>
+        <v>0.999208457531287</v>
       </c>
       <c r="D7">
-        <v>0.9992084575312864</v>
+        <v>1.003455079705105</v>
       </c>
       <c r="E7">
-        <v>0.9988543346555971</v>
+        <v>0.999208457531287</v>
       </c>
       <c r="F7">
-        <v>1.003455079705103</v>
+        <v>0.9988543346555983</v>
       </c>
       <c r="G7">
-        <v>0.9987974937029416</v>
+        <v>0.9985097368416292</v>
       </c>
       <c r="H7">
-        <v>0.9990965098792843</v>
+        <v>0.9990965098792857</v>
       </c>
       <c r="I7">
-        <v>0.9985097368416292</v>
+        <v>0.998797493702943</v>
       </c>
       <c r="J7">
-        <v>0.9992084575312864</v>
+        <v>1.003455079705105</v>
       </c>
       <c r="K7">
-        <v>1.003455079705103</v>
+        <v>1.003455079705105</v>
       </c>
       <c r="L7">
-        <v>0.9988543346555971</v>
+        <v>0.9988543346555983</v>
       </c>
       <c r="M7">
-        <v>0.9990313960934418</v>
+        <v>0.9990313960934426</v>
       </c>
       <c r="N7">
-        <v>0.9990313960934418</v>
+        <v>0.9990313960934426</v>
       </c>
       <c r="O7">
-        <v>0.9990531006887227</v>
+        <v>0.9990531006887237</v>
       </c>
       <c r="P7">
-        <v>1.000505957297329</v>
+        <v>1.00050595729733</v>
       </c>
       <c r="Q7">
-        <v>1.000505957297329</v>
+        <v>1.00050595729733</v>
       </c>
       <c r="R7">
-        <v>1.001243237899272</v>
+        <v>1.001243237899274</v>
       </c>
       <c r="S7">
-        <v>1.001243237899272</v>
+        <v>1.001243237899274</v>
       </c>
       <c r="T7">
-        <v>0.9996536020526401</v>
+        <v>0.9996536020526414</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -924,43 +936,43 @@
         <v>6</v>
       </c>
       <c r="C8">
+        <v>0.9983368492440228</v>
+      </c>
+      <c r="D8">
         <v>1.016783358394947</v>
       </c>
-      <c r="D8">
-        <v>0.9983368492440219</v>
-      </c>
       <c r="E8">
-        <v>0.9969831909762563</v>
+        <v>0.9983368492440228</v>
       </c>
       <c r="F8">
+        <v>0.9969831909762562</v>
+      </c>
+      <c r="G8">
+        <v>0.9963476550026472</v>
+      </c>
+      <c r="H8">
+        <v>0.9996274053393231</v>
+      </c>
+      <c r="I8">
+        <v>1.005829307328</v>
+      </c>
+      <c r="J8">
         <v>1.016783358394947</v>
-      </c>
-      <c r="G8">
-        <v>1.005829307328</v>
-      </c>
-      <c r="H8">
-        <v>0.9996274053393219</v>
-      </c>
-      <c r="I8">
-        <v>0.9963476550026483</v>
-      </c>
-      <c r="J8">
-        <v>0.9983368492440219</v>
       </c>
       <c r="K8">
         <v>1.016783358394947</v>
       </c>
       <c r="L8">
-        <v>0.9969831909762563</v>
+        <v>0.9969831909762562</v>
       </c>
       <c r="M8">
-        <v>0.9976600201101391</v>
+        <v>0.9976600201101395</v>
       </c>
       <c r="N8">
-        <v>0.9976600201101391</v>
+        <v>0.9976600201101395</v>
       </c>
       <c r="O8">
-        <v>0.9983158151865333</v>
+        <v>0.9983158151865341</v>
       </c>
       <c r="P8">
         <v>1.004034466205075</v>
@@ -986,28 +998,28 @@
         <v>7</v>
       </c>
       <c r="C9">
+        <v>1.002521294339786</v>
+      </c>
+      <c r="D9">
         <v>1.047408718375914</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>1.002521294339786</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>0.9997040670494584</v>
       </c>
-      <c r="F9">
-        <v>1.047408718375914</v>
-      </c>
       <c r="G9">
-        <v>0.9903562844195496</v>
+        <v>0.9933300795949923</v>
       </c>
       <c r="H9">
         <v>0.9994280159427856</v>
       </c>
       <c r="I9">
-        <v>0.9933300795949921</v>
+        <v>0.9903562844195494</v>
       </c>
       <c r="J9">
-        <v>1.002521294339786</v>
+        <v>1.047408718375914</v>
       </c>
       <c r="K9">
         <v>1.047408718375914</v>
@@ -1048,28 +1060,28 @@
         <v>8</v>
       </c>
       <c r="C10">
+        <v>0.9920446302045643</v>
+      </c>
+      <c r="D10">
         <v>1.071051514714167</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>0.9920446302045643</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>0.9950890750067719</v>
       </c>
-      <c r="F10">
+      <c r="G10">
+        <v>0.9954105318570978</v>
+      </c>
+      <c r="H10">
+        <v>0.9917994037693324</v>
+      </c>
+      <c r="I10">
+        <v>0.9929555741231759</v>
+      </c>
+      <c r="J10">
         <v>1.071051514714167</v>
-      </c>
-      <c r="G10">
-        <v>0.9929555741231759</v>
-      </c>
-      <c r="H10">
-        <v>0.9917994037693326</v>
-      </c>
-      <c r="I10">
-        <v>0.9954105318570978</v>
-      </c>
-      <c r="J10">
-        <v>0.9920446302045643</v>
       </c>
       <c r="K10">
         <v>1.071051514714167</v>
@@ -1084,7 +1096,7 @@
         <v>0.9935668526056681</v>
       </c>
       <c r="O10">
-        <v>0.9929777029935564</v>
+        <v>0.9929777029935561</v>
       </c>
       <c r="P10">
         <v>1.019395073308501</v>
@@ -1110,43 +1122,43 @@
         <v>9</v>
       </c>
       <c r="C11">
+        <v>1.002621428100762</v>
+      </c>
+      <c r="D11">
         <v>1.250814630877674</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>1.002621428100762</v>
       </c>
-      <c r="E11">
-        <v>0.9843042375330985</v>
-      </c>
       <c r="F11">
-        <v>1.250814630877674</v>
+        <v>0.9843042375330987</v>
       </c>
       <c r="G11">
-        <v>0.8355945338166691</v>
+        <v>0.9894431392254502</v>
       </c>
       <c r="H11">
         <v>0.9789800100535136</v>
       </c>
       <c r="I11">
-        <v>0.9894431392254505</v>
+        <v>0.8355945338166691</v>
       </c>
       <c r="J11">
-        <v>1.002621428100762</v>
+        <v>1.250814630877674</v>
       </c>
       <c r="K11">
         <v>1.250814630877674</v>
       </c>
       <c r="L11">
-        <v>0.9843042375330985</v>
+        <v>0.9843042375330987</v>
       </c>
       <c r="M11">
-        <v>0.9934628328169304</v>
+        <v>0.9934628328169306</v>
       </c>
       <c r="N11">
-        <v>0.9934628328169304</v>
+        <v>0.9934628328169306</v>
       </c>
       <c r="O11">
-        <v>0.9886352252291247</v>
+        <v>0.9886352252291249</v>
       </c>
       <c r="P11">
         <v>1.079246765503845</v>
@@ -1155,10 +1167,10 @@
         <v>1.079246765503845</v>
       </c>
       <c r="R11">
-        <v>1.122138731847302</v>
+        <v>1.122138731847303</v>
       </c>
       <c r="S11">
-        <v>1.122138731847302</v>
+        <v>1.122138731847303</v>
       </c>
       <c r="T11">
         <v>1.006959663267861</v>
@@ -1172,34 +1184,34 @@
         <v>10</v>
       </c>
       <c r="C12">
+        <v>0.02816246208286063</v>
+      </c>
+      <c r="D12">
         <v>1.947503822981913</v>
       </c>
-      <c r="D12">
-        <v>0.02816246208286076</v>
-      </c>
       <c r="E12">
-        <v>0.8936585146339779</v>
+        <v>0.02816246208286063</v>
       </c>
       <c r="F12">
-        <v>1.947503822981913</v>
+        <v>0.8936585146339781</v>
       </c>
       <c r="G12">
-        <v>0.008384910052905488</v>
+        <v>1.444407193392876</v>
       </c>
       <c r="H12">
         <v>1.088287096789949</v>
       </c>
       <c r="I12">
-        <v>1.444407193392877</v>
+        <v>0.008384910052905486</v>
       </c>
       <c r="J12">
-        <v>0.02816246208286076</v>
+        <v>1.947503822981913</v>
       </c>
       <c r="K12">
         <v>1.947503822981913</v>
       </c>
       <c r="L12">
-        <v>0.8936585146339779</v>
+        <v>0.8936585146339781</v>
       </c>
       <c r="M12">
         <v>0.4609104883584194</v>
@@ -1211,10 +1223,10 @@
         <v>0.6700360245022626</v>
       </c>
       <c r="P12">
-        <v>0.9564415998995838</v>
+        <v>0.956441599899584</v>
       </c>
       <c r="Q12">
-        <v>0.9564415998995838</v>
+        <v>0.956441599899584</v>
       </c>
       <c r="R12">
         <v>1.204207155670166</v>
@@ -1234,31 +1246,31 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.8299688759072541</v>
+        <v>1.978384880534225</v>
       </c>
       <c r="D13">
-        <v>1.978384880534224</v>
+        <v>0.8299688759072553</v>
       </c>
       <c r="E13">
+        <v>1.978384880534225</v>
+      </c>
+      <c r="F13">
         <v>1.050809254152312</v>
       </c>
-      <c r="F13">
-        <v>0.8299688759072541</v>
-      </c>
       <c r="G13">
-        <v>1.970008178763249</v>
+        <v>1.105508623078699</v>
       </c>
       <c r="H13">
-        <v>1.324511104887579</v>
+        <v>1.324511104887578</v>
       </c>
       <c r="I13">
-        <v>1.105508623078699</v>
+        <v>1.97000817876325</v>
       </c>
       <c r="J13">
-        <v>1.978384880534224</v>
+        <v>0.8299688759072553</v>
       </c>
       <c r="K13">
-        <v>0.8299688759072541</v>
+        <v>0.8299688759072553</v>
       </c>
       <c r="L13">
         <v>1.050809254152312</v>
@@ -1273,16 +1285,16 @@
         <v>1.451235079858038</v>
       </c>
       <c r="P13">
-        <v>1.28638767019793</v>
+        <v>1.286387670197931</v>
       </c>
       <c r="Q13">
-        <v>1.28638767019793</v>
+        <v>1.286387670197931</v>
       </c>
       <c r="R13">
-        <v>1.172282971625261</v>
+        <v>1.172282971625262</v>
       </c>
       <c r="S13">
-        <v>1.172282971625261</v>
+        <v>1.172282971625262</v>
       </c>
       <c r="T13">
         <v>1.376531819553886</v>
@@ -1296,58 +1308,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>-0.0004220639548422959</v>
+        <v>1.139695438201505</v>
       </c>
       <c r="D14">
-        <v>1.139695438201507</v>
+        <v>-0.000422063954842297</v>
       </c>
       <c r="E14">
+        <v>1.139695438201505</v>
+      </c>
+      <c r="F14">
         <v>1.453649013070499</v>
       </c>
-      <c r="F14">
-        <v>-0.0004220639548422959</v>
-      </c>
       <c r="G14">
-        <v>1.141189664377113</v>
+        <v>0.5717459883016168</v>
       </c>
       <c r="H14">
-        <v>1.708839910903891</v>
+        <v>1.70883991090389</v>
       </c>
       <c r="I14">
-        <v>0.5717459883016169</v>
+        <v>1.141189664377114</v>
       </c>
       <c r="J14">
-        <v>1.139695438201507</v>
+        <v>-0.000422063954842297</v>
       </c>
       <c r="K14">
-        <v>-0.0004220639548422959</v>
+        <v>-0.000422063954842297</v>
       </c>
       <c r="L14">
         <v>1.453649013070499</v>
       </c>
       <c r="M14">
-        <v>1.296672225636003</v>
+        <v>1.296672225636002</v>
       </c>
       <c r="N14">
-        <v>1.296672225636003</v>
+        <v>1.296672225636002</v>
       </c>
       <c r="O14">
-        <v>1.434061454058632</v>
+        <v>1.434061454058631</v>
       </c>
       <c r="P14">
-        <v>0.8643074624390548</v>
+        <v>0.864307462439054</v>
       </c>
       <c r="Q14">
-        <v>0.8643074624390549</v>
+        <v>0.864307462439054</v>
       </c>
       <c r="R14">
-        <v>0.6481250808405806</v>
+        <v>0.64812508084058</v>
       </c>
       <c r="S14">
-        <v>0.6481250808405806</v>
+        <v>0.64812508084058</v>
       </c>
       <c r="T14">
-        <v>1.002449658483298</v>
+        <v>1.002449658483297</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1358,31 +1370,31 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.8100617453708649</v>
+        <v>0.7216725738718084</v>
       </c>
       <c r="D15">
+        <v>0.8100617453708652</v>
+      </c>
+      <c r="E15">
         <v>0.7216725738718084</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>0.8021127364917493</v>
       </c>
-      <c r="F15">
-        <v>0.8100617453708649</v>
-      </c>
       <c r="G15">
-        <v>0.1338779895585502</v>
+        <v>1.304452449442555</v>
       </c>
       <c r="H15">
         <v>0.1598485097874724</v>
       </c>
       <c r="I15">
-        <v>1.304452449442555</v>
+        <v>0.1338779895585501</v>
       </c>
       <c r="J15">
-        <v>0.7216725738718084</v>
+        <v>0.8100617453708652</v>
       </c>
       <c r="K15">
-        <v>0.8100617453708649</v>
+        <v>0.8100617453708652</v>
       </c>
       <c r="L15">
         <v>0.8021127364917493</v>
@@ -1403,10 +1415,10 @@
         <v>0.7779490185781409</v>
       </c>
       <c r="R15">
-        <v>0.7859772002763219</v>
+        <v>0.785977200276322</v>
       </c>
       <c r="S15">
-        <v>0.7859772002763219</v>
+        <v>0.785977200276322</v>
       </c>
       <c r="T15">
         <v>0.6553376674205</v>
@@ -1420,58 +1432,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9915557112424481</v>
+        <v>0.4896915439846395</v>
       </c>
       <c r="D16">
-        <v>0.9998098638866783</v>
+        <v>1.563726112658459</v>
       </c>
       <c r="E16">
-        <v>0.9997025313974945</v>
+        <v>0.4896915439846395</v>
       </c>
       <c r="F16">
-        <v>0.9915557112424481</v>
+        <v>0.3600815523740016</v>
       </c>
       <c r="G16">
-        <v>1.00097293076122</v>
+        <v>0.9049710619826785</v>
       </c>
       <c r="H16">
-        <v>1.001822993843897</v>
+        <v>0.98851176542111</v>
       </c>
       <c r="I16">
-        <v>1.000517729476282</v>
+        <v>0.2006914790345002</v>
       </c>
       <c r="J16">
-        <v>0.9998098638866783</v>
+        <v>1.563726112658459</v>
       </c>
       <c r="K16">
-        <v>0.9915557112424481</v>
+        <v>1.563726112658459</v>
       </c>
       <c r="L16">
-        <v>0.9997025313974945</v>
+        <v>0.3600815523740016</v>
       </c>
       <c r="M16">
-        <v>0.9997561976420863</v>
+        <v>0.4248865481793206</v>
       </c>
       <c r="N16">
-        <v>0.9997561976420863</v>
+        <v>0.4248865481793206</v>
       </c>
       <c r="O16">
-        <v>1.000445129709356</v>
+        <v>0.6127616205932503</v>
       </c>
       <c r="P16">
-        <v>0.9970227021755402</v>
+        <v>0.8044997363390335</v>
       </c>
       <c r="Q16">
-        <v>0.9970227021755402</v>
+        <v>0.8044997363390335</v>
       </c>
       <c r="R16">
-        <v>0.9956559544422672</v>
+        <v>0.9943063304188899</v>
       </c>
       <c r="S16">
-        <v>0.9956559544422672</v>
+        <v>0.9943063304188899</v>
       </c>
       <c r="T16">
-        <v>0.9990636267680032</v>
+        <v>0.7512789192425648</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1482,58 +1494,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.03287845353244</v>
+        <v>0.7401734415562236</v>
       </c>
       <c r="D17">
-        <v>0.9965996471491064</v>
+        <v>1.332717961315786</v>
       </c>
       <c r="E17">
-        <v>0.9977199701763008</v>
+        <v>0.7401734415562236</v>
       </c>
       <c r="F17">
-        <v>1.03287845353244</v>
+        <v>0.5322704974433264</v>
       </c>
       <c r="G17">
-        <v>1.002300381124696</v>
+        <v>0.8911587992759364</v>
       </c>
       <c r="H17">
-        <v>0.9989794038845284</v>
+        <v>1.041398673533703</v>
       </c>
       <c r="I17">
-        <v>1.000169252366526</v>
+        <v>0.4014102716328738</v>
       </c>
       <c r="J17">
-        <v>0.9965996471491064</v>
+        <v>1.332717961315786</v>
       </c>
       <c r="K17">
-        <v>1.03287845353244</v>
+        <v>1.332717961315786</v>
       </c>
       <c r="L17">
-        <v>0.9977199701763008</v>
+        <v>0.5322704974433264</v>
       </c>
       <c r="M17">
-        <v>0.9971598086627036</v>
+        <v>0.6362219694997751</v>
       </c>
       <c r="N17">
-        <v>0.9971598086627036</v>
+        <v>0.6362219694997751</v>
       </c>
       <c r="O17">
-        <v>0.9977663404033118</v>
+        <v>0.7712808708444175</v>
       </c>
       <c r="P17">
-        <v>1.009066023619283</v>
+        <v>0.868387300105112</v>
       </c>
       <c r="Q17">
-        <v>1.009066023619283</v>
+        <v>0.8683873001051118</v>
       </c>
       <c r="R17">
-        <v>1.015019131097572</v>
+        <v>0.9844699654077802</v>
       </c>
       <c r="S17">
-        <v>1.015019131097572</v>
+        <v>0.9844699654077802</v>
       </c>
       <c r="T17">
-        <v>1.004774518038933</v>
+        <v>0.823188274126308</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1544,58 +1556,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.142027234367606</v>
+        <v>1.223818666748404</v>
       </c>
       <c r="D18">
-        <v>0.997952981692984</v>
+        <v>0.8998328563097706</v>
       </c>
       <c r="E18">
-        <v>0.9548748389948416</v>
+        <v>1.223818666748404</v>
       </c>
       <c r="F18">
-        <v>1.142027234367606</v>
+        <v>0.8734191763370657</v>
       </c>
       <c r="G18">
-        <v>0.9899218139204938</v>
+        <v>0.8599796921775044</v>
       </c>
       <c r="H18">
-        <v>0.9938407630462045</v>
+        <v>1.144116811400104</v>
       </c>
       <c r="I18">
-        <v>1.033693055258502</v>
+        <v>0.8122374857920637</v>
       </c>
       <c r="J18">
-        <v>0.997952981692984</v>
+        <v>0.8998328563097706</v>
       </c>
       <c r="K18">
-        <v>1.142027234367606</v>
+        <v>0.8998328563097706</v>
       </c>
       <c r="L18">
-        <v>0.9548748389948416</v>
+        <v>0.8734191763370657</v>
       </c>
       <c r="M18">
-        <v>0.9764139103439128</v>
+        <v>1.048618921542735</v>
       </c>
       <c r="N18">
-        <v>0.9764139103439128</v>
+        <v>1.048618921542735</v>
       </c>
       <c r="O18">
-        <v>0.9822228612446766</v>
+        <v>1.080451551495191</v>
       </c>
       <c r="P18">
-        <v>1.031618351685144</v>
+        <v>0.9990235664650801</v>
       </c>
       <c r="Q18">
-        <v>1.031618351685144</v>
+        <v>0.9990235664650801</v>
       </c>
       <c r="R18">
-        <v>1.059220572355759</v>
+        <v>0.9742258889262527</v>
       </c>
       <c r="S18">
-        <v>1.059220572355759</v>
+        <v>0.9742258889262527</v>
       </c>
       <c r="T18">
-        <v>1.018718447880105</v>
+        <v>0.9689007814608188</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1606,57 +1618,305 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>1.208742345840154</v>
+      </c>
+      <c r="D19">
+        <v>0.7923945562693139</v>
+      </c>
+      <c r="E19">
+        <v>1.208742345840154</v>
+      </c>
+      <c r="F19">
+        <v>0.846781111899922</v>
+      </c>
+      <c r="G19">
+        <v>0.8734813319885301</v>
+      </c>
+      <c r="H19">
+        <v>1.118880797814664</v>
+      </c>
+      <c r="I19">
+        <v>0.8520880594203418</v>
+      </c>
+      <c r="J19">
+        <v>0.7923945562693139</v>
+      </c>
+      <c r="K19">
+        <v>0.7923945562693139</v>
+      </c>
+      <c r="L19">
+        <v>0.846781111899922</v>
+      </c>
+      <c r="M19">
+        <v>1.027761728870038</v>
+      </c>
+      <c r="N19">
+        <v>1.027761728870038</v>
+      </c>
+      <c r="O19">
+        <v>1.05813475185158</v>
+      </c>
+      <c r="P19">
+        <v>0.9493060046697966</v>
+      </c>
+      <c r="Q19">
+        <v>0.9493060046697966</v>
+      </c>
+      <c r="R19">
+        <v>0.910078142569676</v>
+      </c>
+      <c r="S19">
+        <v>0.910078142569676</v>
+      </c>
+      <c r="T19">
+        <v>0.9487280338721543</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.9998098638866774</v>
+      </c>
+      <c r="D20">
+        <v>0.9915557112424485</v>
+      </c>
+      <c r="E20">
+        <v>0.9998098638866774</v>
+      </c>
+      <c r="F20">
+        <v>0.9997025313974955</v>
+      </c>
+      <c r="G20">
+        <v>1.000517729476282</v>
+      </c>
+      <c r="H20">
+        <v>1.001822993843897</v>
+      </c>
+      <c r="I20">
+        <v>1.000972930761219</v>
+      </c>
+      <c r="J20">
+        <v>0.9915557112424485</v>
+      </c>
+      <c r="K20">
+        <v>0.9915557112424485</v>
+      </c>
+      <c r="L20">
+        <v>0.9997025313974955</v>
+      </c>
+      <c r="M20">
+        <v>0.9997561976420865</v>
+      </c>
+      <c r="N20">
+        <v>0.9997561976420865</v>
+      </c>
+      <c r="O20">
+        <v>1.000445129709357</v>
+      </c>
+      <c r="P20">
+        <v>0.9970227021755406</v>
+      </c>
+      <c r="Q20">
+        <v>0.9970227021755403</v>
+      </c>
+      <c r="R20">
+        <v>0.9956559544422674</v>
+      </c>
+      <c r="S20">
+        <v>0.9956559544422674</v>
+      </c>
+      <c r="T20">
+        <v>0.9990636267680033</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9965996471491063</v>
+      </c>
+      <c r="D21">
+        <v>1.032878453532439</v>
+      </c>
+      <c r="E21">
+        <v>0.9965996471491063</v>
+      </c>
+      <c r="F21">
+        <v>0.9977199701763002</v>
+      </c>
+      <c r="G21">
+        <v>1.000169252366526</v>
+      </c>
+      <c r="H21">
+        <v>0.9989794038845281</v>
+      </c>
+      <c r="I21">
+        <v>1.002300381124696</v>
+      </c>
+      <c r="J21">
+        <v>1.032878453532439</v>
+      </c>
+      <c r="K21">
+        <v>1.032878453532439</v>
+      </c>
+      <c r="L21">
+        <v>0.9977199701763002</v>
+      </c>
+      <c r="M21">
+        <v>0.9971598086627033</v>
+      </c>
+      <c r="N21">
+        <v>0.9971598086627033</v>
+      </c>
+      <c r="O21">
+        <v>0.9977663404033116</v>
+      </c>
+      <c r="P21">
+        <v>1.009066023619282</v>
+      </c>
+      <c r="Q21">
+        <v>1.009066023619282</v>
+      </c>
+      <c r="R21">
+        <v>1.015019131097571</v>
+      </c>
+      <c r="S21">
+        <v>1.015019131097571</v>
+      </c>
+      <c r="T21">
+        <v>1.004774518038933</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9979529816929837</v>
+      </c>
+      <c r="D22">
+        <v>1.142027234367606</v>
+      </c>
+      <c r="E22">
+        <v>0.9979529816929837</v>
+      </c>
+      <c r="F22">
+        <v>0.9548748389948418</v>
+      </c>
+      <c r="G22">
+        <v>1.033693055258503</v>
+      </c>
+      <c r="H22">
+        <v>0.9938407630462037</v>
+      </c>
+      <c r="I22">
+        <v>0.9899218139204938</v>
+      </c>
+      <c r="J22">
+        <v>1.142027234367606</v>
+      </c>
+      <c r="K22">
+        <v>1.142027234367606</v>
+      </c>
+      <c r="L22">
+        <v>0.9548748389948418</v>
+      </c>
+      <c r="M22">
+        <v>0.9764139103439128</v>
+      </c>
+      <c r="N22">
+        <v>0.9764139103439128</v>
+      </c>
+      <c r="O22">
+        <v>0.9822228612446765</v>
+      </c>
+      <c r="P22">
+        <v>1.031618351685144</v>
+      </c>
+      <c r="Q22">
+        <v>1.031618351685144</v>
+      </c>
+      <c r="R22">
+        <v>1.05922057235576</v>
+      </c>
+      <c r="S22">
+        <v>1.05922057235576</v>
+      </c>
+      <c r="T22">
+        <v>1.018718447880105</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.7111392718243243</v>
+      </c>
+      <c r="D23">
         <v>0.8045770884521859</v>
       </c>
-      <c r="D19">
+      <c r="E23">
         <v>0.7111392718243243</v>
       </c>
-      <c r="E19">
+      <c r="F23">
         <v>1.006288395017029</v>
       </c>
-      <c r="F19">
+      <c r="G23">
+        <v>1.115851747890229</v>
+      </c>
+      <c r="H23">
+        <v>1.031067143442572</v>
+      </c>
+      <c r="I23">
+        <v>1.163636169032363</v>
+      </c>
+      <c r="J23">
         <v>0.8045770884521859</v>
       </c>
-      <c r="G19">
-        <v>1.163636169032363</v>
-      </c>
-      <c r="H19">
-        <v>1.031067143442572</v>
-      </c>
-      <c r="I19">
-        <v>1.115851747890229</v>
-      </c>
-      <c r="J19">
-        <v>0.7111392718243243</v>
-      </c>
-      <c r="K19">
+      <c r="K23">
         <v>0.8045770884521859</v>
       </c>
-      <c r="L19">
+      <c r="L23">
         <v>1.006288395017029</v>
       </c>
-      <c r="M19">
+      <c r="M23">
         <v>0.8587138334206766</v>
       </c>
-      <c r="N19">
+      <c r="N23">
         <v>0.8587138334206766</v>
       </c>
-      <c r="O19">
+      <c r="O23">
         <v>0.9161649367613084</v>
       </c>
-      <c r="P19">
+      <c r="P23">
         <v>0.8406682517645131</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>0.8406682517645131</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>0.8316454609364312</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>0.8316454609364312</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>0.9720933026097839</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/Alpha1F-HW05.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha1F-HW05.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[2, 0, 0]</t>
@@ -491,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,58 +621,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,58 +683,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9603982863342367</v>
+        <v>1.17415835163086</v>
       </c>
       <c r="D3">
-        <v>1.033295320830496</v>
+        <v>0.8665992358183766</v>
       </c>
       <c r="E3">
-        <v>0.9603982863342367</v>
+        <v>1.17415835163086</v>
       </c>
       <c r="F3">
-        <v>0.9568466131739304</v>
+        <v>0.8309536970369803</v>
       </c>
       <c r="G3">
-        <v>0.9952719105738961</v>
+        <v>0.8473102534654092</v>
       </c>
       <c r="H3">
-        <v>1.001687357152962</v>
+        <v>1.126101177073473</v>
       </c>
       <c r="I3">
-        <v>0.9480679269782257</v>
+        <v>0.7623625861810627</v>
       </c>
       <c r="J3">
-        <v>1.033295320830496</v>
+        <v>0.8665992358183766</v>
       </c>
       <c r="K3">
-        <v>1.033295320830496</v>
+        <v>0.8665992358183766</v>
       </c>
       <c r="L3">
-        <v>0.9568466131739304</v>
+        <v>0.8309536970369803</v>
       </c>
       <c r="M3">
-        <v>0.9586224497540836</v>
+        <v>1.00255602433392</v>
       </c>
       <c r="N3">
-        <v>0.9586224497540836</v>
+        <v>1.00255602433392</v>
       </c>
       <c r="O3">
-        <v>0.9729774188870431</v>
+        <v>1.043737741913771</v>
       </c>
       <c r="P3">
-        <v>0.9835134067795545</v>
+        <v>0.9572370948287391</v>
       </c>
       <c r="Q3">
-        <v>0.9835134067795545</v>
+        <v>0.9572370948287391</v>
       </c>
       <c r="R3">
-        <v>0.9959588852922899</v>
+        <v>0.9345776300761485</v>
       </c>
       <c r="S3">
-        <v>0.9959588852922899</v>
+        <v>0.9345776300761485</v>
       </c>
       <c r="T3">
-        <v>0.9825945691739579</v>
+        <v>0.9345808835343603</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -688,58 +745,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9490389450926037</v>
+        <v>1.210930159626376</v>
       </c>
       <c r="D4">
-        <v>1.078802738517202</v>
+        <v>0.8519945861473485</v>
       </c>
       <c r="E4">
-        <v>0.9490389450926037</v>
+        <v>1.210930159626376</v>
       </c>
       <c r="F4">
-        <v>0.9374798231982281</v>
+        <v>0.8561736733712987</v>
       </c>
       <c r="G4">
-        <v>1.003098938229908</v>
+        <v>0.8569657050574522</v>
       </c>
       <c r="H4">
-        <v>0.9723475474058439</v>
+        <v>1.138800374652174</v>
       </c>
       <c r="I4">
-        <v>0.9194045203581911</v>
+        <v>0.7850310156667464</v>
       </c>
       <c r="J4">
-        <v>1.078802738517202</v>
+        <v>0.8519945861473485</v>
       </c>
       <c r="K4">
-        <v>1.078802738517202</v>
+        <v>0.8519945861473485</v>
       </c>
       <c r="L4">
-        <v>0.9374798231982281</v>
+        <v>0.8561736733712987</v>
       </c>
       <c r="M4">
-        <v>0.9432593841454159</v>
+        <v>1.033551916498837</v>
       </c>
       <c r="N4">
-        <v>0.9432593841454159</v>
+        <v>1.033551916498837</v>
       </c>
       <c r="O4">
-        <v>0.9529554385655586</v>
+        <v>1.068634735883283</v>
       </c>
       <c r="P4">
-        <v>0.9884405022693444</v>
+        <v>0.9730328063816742</v>
       </c>
       <c r="Q4">
-        <v>0.9884405022693444</v>
+        <v>0.9730328063816743</v>
       </c>
       <c r="R4">
-        <v>1.011031061331309</v>
+        <v>0.9427732513230929</v>
       </c>
       <c r="S4">
-        <v>1.011031061331309</v>
+        <v>0.9427732513230929</v>
       </c>
       <c r="T4">
-        <v>0.9766954188003293</v>
+        <v>0.9499825857535659</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -750,58 +807,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.5340260645028635</v>
+        <v>1.07144072451461</v>
       </c>
       <c r="D5">
-        <v>1.245390163545357</v>
+        <v>0.8998273362801371</v>
       </c>
       <c r="E5">
-        <v>0.5340260645028635</v>
+        <v>1.07144072451461</v>
       </c>
       <c r="F5">
-        <v>0.8115824054734082</v>
+        <v>0.808419703471105</v>
       </c>
       <c r="G5">
-        <v>1.112894864222037</v>
+        <v>0.8262509934577369</v>
       </c>
       <c r="H5">
-        <v>0.887117413513217</v>
+        <v>1.100290469993</v>
       </c>
       <c r="I5">
-        <v>1.001665038562908</v>
+        <v>0.7305127784722364</v>
       </c>
       <c r="J5">
-        <v>1.245390163545357</v>
+        <v>0.8998273362801371</v>
       </c>
       <c r="K5">
-        <v>1.245390163545357</v>
+        <v>0.8998273362801371</v>
       </c>
       <c r="L5">
-        <v>0.8115824054734082</v>
+        <v>0.808419703471105</v>
       </c>
       <c r="M5">
-        <v>0.6728042349881358</v>
+        <v>0.9399302139928576</v>
       </c>
       <c r="N5">
-        <v>0.6728042349881358</v>
+        <v>0.9399302139928576</v>
       </c>
       <c r="O5">
-        <v>0.7442419611631629</v>
+        <v>0.9933836326595719</v>
       </c>
       <c r="P5">
-        <v>0.8636662111738763</v>
+        <v>0.9265625880886175</v>
       </c>
       <c r="Q5">
-        <v>0.8636662111738763</v>
+        <v>0.9265625880886175</v>
       </c>
       <c r="R5">
-        <v>0.9590971992667465</v>
+        <v>0.9198787751364974</v>
       </c>
       <c r="S5">
-        <v>0.9590971992667465</v>
+        <v>0.9198787751364974</v>
       </c>
       <c r="T5">
-        <v>0.9321126583032985</v>
+        <v>0.9061236676981377</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -812,58 +869,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.2524654590984607</v>
+        <v>1.412650992733432</v>
       </c>
       <c r="D6">
-        <v>1.53919425166635</v>
+        <v>1.115939830062545</v>
       </c>
       <c r="E6">
-        <v>0.2524654590984607</v>
+        <v>1.412650992733432</v>
       </c>
       <c r="F6">
-        <v>0.5076075292482196</v>
+        <v>0.6124669530609095</v>
       </c>
       <c r="G6">
-        <v>1.186726939150263</v>
+        <v>0.7869426370760799</v>
       </c>
       <c r="H6">
-        <v>0.908075979937792</v>
+        <v>1.237325903867103</v>
       </c>
       <c r="I6">
-        <v>0.7403039790582365</v>
+        <v>0.6186452560756818</v>
       </c>
       <c r="J6">
-        <v>1.53919425166635</v>
+        <v>1.115939830062545</v>
       </c>
       <c r="K6">
-        <v>1.53919425166635</v>
+        <v>1.115939830062545</v>
       </c>
       <c r="L6">
-        <v>0.5076075292482196</v>
+        <v>0.6124669530609095</v>
       </c>
       <c r="M6">
-        <v>0.3800364941733402</v>
+        <v>1.012558972897171</v>
       </c>
       <c r="N6">
-        <v>0.3800364941733402</v>
+        <v>1.012558972897171</v>
       </c>
       <c r="O6">
-        <v>0.5560496560948242</v>
+        <v>1.087481283220481</v>
       </c>
       <c r="P6">
-        <v>0.7664224133376768</v>
+        <v>1.047019258618962</v>
       </c>
       <c r="Q6">
-        <v>0.7664224133376768</v>
+        <v>1.047019258618962</v>
       </c>
       <c r="R6">
-        <v>0.9596153729198451</v>
+        <v>1.064249401479858</v>
       </c>
       <c r="S6">
-        <v>0.9596153729198451</v>
+        <v>1.064249401479858</v>
       </c>
       <c r="T6">
-        <v>0.8557290230265536</v>
+        <v>0.9639952621459583</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -874,58 +931,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.999208457531287</v>
+        <v>0.0008751192236104313</v>
       </c>
       <c r="D7">
-        <v>1.003455079705105</v>
+        <v>1.971448942085976</v>
       </c>
       <c r="E7">
-        <v>0.999208457531287</v>
+        <v>0.0008751192236104313</v>
       </c>
       <c r="F7">
-        <v>0.9988543346555983</v>
+        <v>0.167481851998197</v>
       </c>
       <c r="G7">
-        <v>0.9985097368416292</v>
+        <v>1.17228606157753</v>
       </c>
       <c r="H7">
-        <v>0.9990965098792857</v>
+        <v>1.525296385619197</v>
       </c>
       <c r="I7">
-        <v>0.998797493702943</v>
+        <v>0.5907571118259899</v>
       </c>
       <c r="J7">
-        <v>1.003455079705105</v>
+        <v>1.971448942085976</v>
       </c>
       <c r="K7">
-        <v>1.003455079705105</v>
+        <v>1.971448942085976</v>
       </c>
       <c r="L7">
-        <v>0.9988543346555983</v>
+        <v>0.167481851998197</v>
       </c>
       <c r="M7">
-        <v>0.9990313960934426</v>
+        <v>0.0841784856109037</v>
       </c>
       <c r="N7">
-        <v>0.9990313960934426</v>
+        <v>0.0841784856109037</v>
       </c>
       <c r="O7">
-        <v>0.9990531006887237</v>
+        <v>0.5645511189470013</v>
       </c>
       <c r="P7">
-        <v>1.00050595729733</v>
+        <v>0.7132686377692611</v>
       </c>
       <c r="Q7">
-        <v>1.00050595729733</v>
+        <v>0.7132686377692611</v>
       </c>
       <c r="R7">
-        <v>1.001243237899274</v>
+        <v>1.02781371384844</v>
       </c>
       <c r="S7">
-        <v>1.001243237899274</v>
+        <v>1.02781371384844</v>
       </c>
       <c r="T7">
-        <v>0.9996536020526414</v>
+        <v>0.9046909120550833</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -936,58 +993,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9983368492440228</v>
+        <v>0.001049769859248106</v>
       </c>
       <c r="D8">
-        <v>1.016783358394947</v>
+        <v>2.017753099156763</v>
       </c>
       <c r="E8">
-        <v>0.9983368492440228</v>
+        <v>0.001049769859248106</v>
       </c>
       <c r="F8">
-        <v>0.9969831909762562</v>
+        <v>0.166633664373018</v>
       </c>
       <c r="G8">
-        <v>0.9963476550026472</v>
+        <v>1.165686704002496</v>
       </c>
       <c r="H8">
-        <v>0.9996274053393231</v>
+        <v>1.515882241277805</v>
       </c>
       <c r="I8">
-        <v>1.005829307328</v>
+        <v>0.5877644483483286</v>
       </c>
       <c r="J8">
-        <v>1.016783358394947</v>
+        <v>2.017753099156763</v>
       </c>
       <c r="K8">
-        <v>1.016783358394947</v>
+        <v>2.017753099156763</v>
       </c>
       <c r="L8">
-        <v>0.9969831909762562</v>
+        <v>0.166633664373018</v>
       </c>
       <c r="M8">
-        <v>0.9976600201101395</v>
+        <v>0.08384171711613304</v>
       </c>
       <c r="N8">
-        <v>0.9976600201101395</v>
+        <v>0.08384171711613304</v>
       </c>
       <c r="O8">
-        <v>0.9983158151865341</v>
+        <v>0.561188558503357</v>
       </c>
       <c r="P8">
-        <v>1.004034466205075</v>
+        <v>0.7284788444630097</v>
       </c>
       <c r="Q8">
-        <v>1.004034466205075</v>
+        <v>0.7284788444630097</v>
       </c>
       <c r="R8">
-        <v>1.007221689252543</v>
+        <v>1.050797408136448</v>
       </c>
       <c r="S8">
-        <v>1.007221689252543</v>
+        <v>1.050797408136448</v>
       </c>
       <c r="T8">
-        <v>1.002317961047533</v>
+        <v>0.9091283211696098</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -998,58 +1055,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.002521294339786</v>
+        <v>0.001252394051418202</v>
       </c>
       <c r="D9">
-        <v>1.047408718375914</v>
+        <v>2.020248984325048</v>
       </c>
       <c r="E9">
-        <v>1.002521294339786</v>
+        <v>0.001252394051418202</v>
       </c>
       <c r="F9">
-        <v>0.9997040670494584</v>
+        <v>0.1661707246032008</v>
       </c>
       <c r="G9">
-        <v>0.9933300795949923</v>
+        <v>1.161062167556885</v>
       </c>
       <c r="H9">
-        <v>0.9994280159427856</v>
+        <v>1.500848098302064</v>
       </c>
       <c r="I9">
-        <v>0.9903562844195494</v>
+        <v>0.5860953911978658</v>
       </c>
       <c r="J9">
-        <v>1.047408718375914</v>
+        <v>2.020248984325048</v>
       </c>
       <c r="K9">
-        <v>1.047408718375914</v>
+        <v>2.020248984325048</v>
       </c>
       <c r="L9">
-        <v>0.9997040670494584</v>
+        <v>0.1661707246032008</v>
       </c>
       <c r="M9">
-        <v>1.001112680694622</v>
+        <v>0.08371155932730952</v>
       </c>
       <c r="N9">
-        <v>1.001112680694622</v>
+        <v>0.08371155932730952</v>
       </c>
       <c r="O9">
-        <v>1.000551125777343</v>
+        <v>0.5560904056522279</v>
       </c>
       <c r="P9">
-        <v>1.016544693255053</v>
+        <v>0.7292240343265556</v>
       </c>
       <c r="Q9">
-        <v>1.016544693255053</v>
+        <v>0.7292240343265556</v>
       </c>
       <c r="R9">
-        <v>1.024260699535268</v>
+        <v>1.051980271826179</v>
       </c>
       <c r="S9">
-        <v>1.024260699535268</v>
+        <v>1.051980271826179</v>
       </c>
       <c r="T9">
-        <v>1.005458076620414</v>
+        <v>0.9059462933394137</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1060,58 +1117,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9920446302045643</v>
+        <v>0.001647493419363572</v>
       </c>
       <c r="D10">
-        <v>1.071051514714167</v>
+        <v>2.270714086187471</v>
       </c>
       <c r="E10">
-        <v>0.9920446302045643</v>
+        <v>0.001647493419363572</v>
       </c>
       <c r="F10">
-        <v>0.9950890750067719</v>
+        <v>0.1640268526759765</v>
       </c>
       <c r="G10">
-        <v>0.9954105318570978</v>
+        <v>1.144147534483011</v>
       </c>
       <c r="H10">
-        <v>0.9917994037693324</v>
+        <v>1.449843669998863</v>
       </c>
       <c r="I10">
-        <v>0.9929555741231759</v>
+        <v>0.5783633484706436</v>
       </c>
       <c r="J10">
-        <v>1.071051514714167</v>
+        <v>2.270714086187471</v>
       </c>
       <c r="K10">
-        <v>1.071051514714167</v>
+        <v>2.270714086187471</v>
       </c>
       <c r="L10">
-        <v>0.9950890750067719</v>
+        <v>0.1640268526759765</v>
       </c>
       <c r="M10">
-        <v>0.9935668526056681</v>
+        <v>0.08283717304767002</v>
       </c>
       <c r="N10">
-        <v>0.9935668526056681</v>
+        <v>0.08283717304767002</v>
       </c>
       <c r="O10">
-        <v>0.9929777029935561</v>
+        <v>0.5385060053647345</v>
       </c>
       <c r="P10">
-        <v>1.019395073308501</v>
+        <v>0.8121294774276037</v>
       </c>
       <c r="Q10">
-        <v>1.019395073308501</v>
+        <v>0.8121294774276037</v>
       </c>
       <c r="R10">
-        <v>1.032309183659917</v>
+        <v>1.17677562961757</v>
       </c>
       <c r="S10">
-        <v>1.032309183659917</v>
+        <v>1.17677562961757</v>
       </c>
       <c r="T10">
-        <v>1.006391788279185</v>
+        <v>0.9347904975392215</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1122,58 +1179,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.002621428100762</v>
+        <v>0.9680482885655528</v>
       </c>
       <c r="D11">
-        <v>1.250814630877674</v>
+        <v>1.029239228834919</v>
       </c>
       <c r="E11">
-        <v>1.002621428100762</v>
+        <v>0.9680482885655528</v>
       </c>
       <c r="F11">
-        <v>0.9843042375330987</v>
+        <v>0.9592762836639757</v>
       </c>
       <c r="G11">
-        <v>0.9894431392254502</v>
+        <v>1.00248623114111</v>
       </c>
       <c r="H11">
-        <v>0.9789800100535136</v>
+        <v>1.011407699737022</v>
       </c>
       <c r="I11">
-        <v>0.8355945338166691</v>
+        <v>0.9499689691564456</v>
       </c>
       <c r="J11">
-        <v>1.250814630877674</v>
+        <v>1.029239228834919</v>
       </c>
       <c r="K11">
-        <v>1.250814630877674</v>
+        <v>1.029239228834919</v>
       </c>
       <c r="L11">
-        <v>0.9843042375330987</v>
+        <v>0.9592762836639757</v>
       </c>
       <c r="M11">
-        <v>0.9934628328169306</v>
+        <v>0.9636622861147642</v>
       </c>
       <c r="N11">
-        <v>0.9934628328169306</v>
+        <v>0.9636622861147642</v>
       </c>
       <c r="O11">
-        <v>0.9886352252291249</v>
+        <v>0.9795774239888503</v>
       </c>
       <c r="P11">
-        <v>1.079246765503845</v>
+        <v>0.9855212670214826</v>
       </c>
       <c r="Q11">
-        <v>1.079246765503845</v>
+        <v>0.9855212670214826</v>
       </c>
       <c r="R11">
-        <v>1.122138731847303</v>
+        <v>0.9964507574748418</v>
       </c>
       <c r="S11">
-        <v>1.122138731847303</v>
+        <v>0.9964507574748418</v>
       </c>
       <c r="T11">
-        <v>1.006959663267861</v>
+        <v>0.9867377835165042</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1184,58 +1241,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.02816246208286063</v>
+        <v>0.9775083033331455</v>
       </c>
       <c r="D12">
-        <v>1.947503822981913</v>
+        <v>1.019655305823575</v>
       </c>
       <c r="E12">
-        <v>0.02816246208286063</v>
+        <v>0.9775083033331455</v>
       </c>
       <c r="F12">
-        <v>0.8936585146339781</v>
+        <v>0.9783701464172438</v>
       </c>
       <c r="G12">
-        <v>1.444407193392876</v>
+        <v>0.9979380785005211</v>
       </c>
       <c r="H12">
-        <v>1.088287096789949</v>
+        <v>0.9996068701148145</v>
       </c>
       <c r="I12">
-        <v>0.008384910052905486</v>
+        <v>0.9770646532958331</v>
       </c>
       <c r="J12">
-        <v>1.947503822981913</v>
+        <v>1.019655305823575</v>
       </c>
       <c r="K12">
-        <v>1.947503822981913</v>
+        <v>1.019655305823575</v>
       </c>
       <c r="L12">
-        <v>0.8936585146339781</v>
+        <v>0.9783701464172438</v>
       </c>
       <c r="M12">
-        <v>0.4609104883584194</v>
+        <v>0.9779392248751947</v>
       </c>
       <c r="N12">
-        <v>0.4609104883584194</v>
+        <v>0.9779392248751947</v>
       </c>
       <c r="O12">
-        <v>0.6700360245022626</v>
+        <v>0.9851617732884014</v>
       </c>
       <c r="P12">
-        <v>0.956441599899584</v>
+        <v>0.9918445851913215</v>
       </c>
       <c r="Q12">
-        <v>0.956441599899584</v>
+        <v>0.9918445851913215</v>
       </c>
       <c r="R12">
-        <v>1.204207155670166</v>
+        <v>0.9987972653493848</v>
       </c>
       <c r="S12">
-        <v>1.204207155670166</v>
+        <v>0.9987972653493848</v>
       </c>
       <c r="T12">
-        <v>0.9017339999890804</v>
+        <v>0.9916905595808555</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1246,58 +1303,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.978384880534225</v>
+        <v>0.90978573125673</v>
       </c>
       <c r="D13">
-        <v>0.8299688759072553</v>
+        <v>1.033427087942735</v>
       </c>
       <c r="E13">
-        <v>1.978384880534225</v>
+        <v>0.90978573125673</v>
       </c>
       <c r="F13">
-        <v>1.050809254152312</v>
+        <v>0.9673504835864432</v>
       </c>
       <c r="G13">
-        <v>1.105508623078699</v>
+        <v>1.001888607198822</v>
       </c>
       <c r="H13">
-        <v>1.324511104887578</v>
+        <v>0.9720570616566093</v>
       </c>
       <c r="I13">
-        <v>1.97000817876325</v>
+        <v>0.9034094241794374</v>
       </c>
       <c r="J13">
-        <v>0.8299688759072553</v>
+        <v>1.033427087942735</v>
       </c>
       <c r="K13">
-        <v>0.8299688759072553</v>
+        <v>1.033427087942735</v>
       </c>
       <c r="L13">
-        <v>1.050809254152312</v>
+        <v>0.9673504835864432</v>
       </c>
       <c r="M13">
-        <v>1.514597067343268</v>
+        <v>0.9385681074215866</v>
       </c>
       <c r="N13">
-        <v>1.514597067343268</v>
+        <v>0.9385681074215866</v>
       </c>
       <c r="O13">
-        <v>1.451235079858038</v>
+        <v>0.9497310921665942</v>
       </c>
       <c r="P13">
-        <v>1.286387670197931</v>
+        <v>0.9701877675953027</v>
       </c>
       <c r="Q13">
-        <v>1.286387670197931</v>
+        <v>0.9701877675953026</v>
       </c>
       <c r="R13">
-        <v>1.172282971625262</v>
+        <v>0.9859975976821607</v>
       </c>
       <c r="S13">
-        <v>1.172282971625262</v>
+        <v>0.9859975976821607</v>
       </c>
       <c r="T13">
-        <v>1.376531819553886</v>
+        <v>0.9646530659701295</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1308,58 +1365,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.139695438201505</v>
+        <v>0.8220420426776343</v>
       </c>
       <c r="D14">
-        <v>-0.000422063954842297</v>
+        <v>1.421317547349723</v>
       </c>
       <c r="E14">
-        <v>1.139695438201505</v>
+        <v>0.8220420426776343</v>
       </c>
       <c r="F14">
-        <v>1.453649013070499</v>
+        <v>0.7314317318732618</v>
       </c>
       <c r="G14">
-        <v>0.5717459883016168</v>
+        <v>1.028436773777552</v>
       </c>
       <c r="H14">
-        <v>1.70883991090389</v>
+        <v>1.148618013337802</v>
       </c>
       <c r="I14">
-        <v>1.141189664377114</v>
+        <v>0.8022718291335658</v>
       </c>
       <c r="J14">
-        <v>-0.000422063954842297</v>
+        <v>1.421317547349723</v>
       </c>
       <c r="K14">
-        <v>-0.000422063954842297</v>
+        <v>1.421317547349723</v>
       </c>
       <c r="L14">
-        <v>1.453649013070499</v>
+        <v>0.7314317318732618</v>
       </c>
       <c r="M14">
-        <v>1.296672225636002</v>
+        <v>0.7767368872754481</v>
       </c>
       <c r="N14">
-        <v>1.296672225636002</v>
+        <v>0.7767368872754481</v>
       </c>
       <c r="O14">
-        <v>1.434061454058631</v>
+        <v>0.9006972626295661</v>
       </c>
       <c r="P14">
-        <v>0.864307462439054</v>
+        <v>0.9915971073002062</v>
       </c>
       <c r="Q14">
-        <v>0.864307462439054</v>
+        <v>0.9915971073002062</v>
       </c>
       <c r="R14">
-        <v>0.64812508084058</v>
+        <v>1.099027217312585</v>
       </c>
       <c r="S14">
-        <v>0.64812508084058</v>
+        <v>1.099027217312585</v>
       </c>
       <c r="T14">
-        <v>1.002449658483297</v>
+        <v>0.9923529896915896</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1370,58 +1427,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.7216725738718084</v>
+        <v>0.9603982863342367</v>
       </c>
       <c r="D15">
-        <v>0.8100617453708652</v>
+        <v>1.033295320830496</v>
       </c>
       <c r="E15">
-        <v>0.7216725738718084</v>
+        <v>0.9603982863342367</v>
       </c>
       <c r="F15">
-        <v>0.8021127364917493</v>
+        <v>0.9568466131739304</v>
       </c>
       <c r="G15">
-        <v>1.304452449442555</v>
+        <v>0.9952719105738961</v>
       </c>
       <c r="H15">
-        <v>0.1598485097874724</v>
+        <v>1.001687357152962</v>
       </c>
       <c r="I15">
-        <v>0.1338779895585501</v>
+        <v>0.9480679269782257</v>
       </c>
       <c r="J15">
-        <v>0.8100617453708652</v>
+        <v>1.033295320830496</v>
       </c>
       <c r="K15">
-        <v>0.8100617453708652</v>
+        <v>1.033295320830496</v>
       </c>
       <c r="L15">
-        <v>0.8021127364917493</v>
+        <v>0.9568466131739304</v>
       </c>
       <c r="M15">
-        <v>0.7618926551817788</v>
+        <v>0.9586224497540836</v>
       </c>
       <c r="N15">
-        <v>0.7618926551817788</v>
+        <v>0.9586224497540836</v>
       </c>
       <c r="O15">
-        <v>0.5612112733836767</v>
+        <v>0.9729774188870431</v>
       </c>
       <c r="P15">
-        <v>0.7779490185781409</v>
+        <v>0.9835134067795545</v>
       </c>
       <c r="Q15">
-        <v>0.7779490185781409</v>
+        <v>0.9835134067795545</v>
       </c>
       <c r="R15">
-        <v>0.785977200276322</v>
+        <v>0.9959588852922899</v>
       </c>
       <c r="S15">
-        <v>0.785977200276322</v>
+        <v>0.9959588852922899</v>
       </c>
       <c r="T15">
-        <v>0.6553376674205</v>
+        <v>0.9825945691739579</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1432,58 +1489,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.4896915439846395</v>
+        <v>0.9490389450926037</v>
       </c>
       <c r="D16">
-        <v>1.563726112658459</v>
+        <v>1.078802738517202</v>
       </c>
       <c r="E16">
-        <v>0.4896915439846395</v>
+        <v>0.9490389450926037</v>
       </c>
       <c r="F16">
-        <v>0.3600815523740016</v>
+        <v>0.9374798231982281</v>
       </c>
       <c r="G16">
-        <v>0.9049710619826785</v>
+        <v>1.003098938229908</v>
       </c>
       <c r="H16">
-        <v>0.98851176542111</v>
+        <v>0.9723475474058439</v>
       </c>
       <c r="I16">
-        <v>0.2006914790345002</v>
+        <v>0.9194045203581911</v>
       </c>
       <c r="J16">
-        <v>1.563726112658459</v>
+        <v>1.078802738517202</v>
       </c>
       <c r="K16">
-        <v>1.563726112658459</v>
+        <v>1.078802738517202</v>
       </c>
       <c r="L16">
-        <v>0.3600815523740016</v>
+        <v>0.9374798231982281</v>
       </c>
       <c r="M16">
-        <v>0.4248865481793206</v>
+        <v>0.9432593841454159</v>
       </c>
       <c r="N16">
-        <v>0.4248865481793206</v>
+        <v>0.9432593841454159</v>
       </c>
       <c r="O16">
-        <v>0.6127616205932503</v>
+        <v>0.9529554385655586</v>
       </c>
       <c r="P16">
-        <v>0.8044997363390335</v>
+        <v>0.9884405022693444</v>
       </c>
       <c r="Q16">
-        <v>0.8044997363390335</v>
+        <v>0.9884405022693444</v>
       </c>
       <c r="R16">
-        <v>0.9943063304188899</v>
+        <v>1.011031061331309</v>
       </c>
       <c r="S16">
-        <v>0.9943063304188899</v>
+        <v>1.011031061331309</v>
       </c>
       <c r="T16">
-        <v>0.7512789192425648</v>
+        <v>0.9766954188003293</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1494,58 +1551,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.7401734415562236</v>
+        <v>0.5340260645028635</v>
       </c>
       <c r="D17">
-        <v>1.332717961315786</v>
+        <v>1.245390163545357</v>
       </c>
       <c r="E17">
-        <v>0.7401734415562236</v>
+        <v>0.5340260645028635</v>
       </c>
       <c r="F17">
-        <v>0.5322704974433264</v>
+        <v>0.8115824054734082</v>
       </c>
       <c r="G17">
-        <v>0.8911587992759364</v>
+        <v>1.112894864222037</v>
       </c>
       <c r="H17">
-        <v>1.041398673533703</v>
+        <v>0.887117413513217</v>
       </c>
       <c r="I17">
-        <v>0.4014102716328738</v>
+        <v>1.001665038562908</v>
       </c>
       <c r="J17">
-        <v>1.332717961315786</v>
+        <v>1.245390163545357</v>
       </c>
       <c r="K17">
-        <v>1.332717961315786</v>
+        <v>1.245390163545357</v>
       </c>
       <c r="L17">
-        <v>0.5322704974433264</v>
+        <v>0.8115824054734082</v>
       </c>
       <c r="M17">
-        <v>0.6362219694997751</v>
+        <v>0.6728042349881358</v>
       </c>
       <c r="N17">
-        <v>0.6362219694997751</v>
+        <v>0.6728042349881358</v>
       </c>
       <c r="O17">
-        <v>0.7712808708444175</v>
+        <v>0.7442419611631629</v>
       </c>
       <c r="P17">
-        <v>0.868387300105112</v>
+        <v>0.8636662111738763</v>
       </c>
       <c r="Q17">
-        <v>0.8683873001051118</v>
+        <v>0.8636662111738763</v>
       </c>
       <c r="R17">
-        <v>0.9844699654077802</v>
+        <v>0.9590971992667465</v>
       </c>
       <c r="S17">
-        <v>0.9844699654077802</v>
+        <v>0.9590971992667465</v>
       </c>
       <c r="T17">
-        <v>0.823188274126308</v>
+        <v>0.9321126583032985</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1556,58 +1613,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.223818666748404</v>
+        <v>0.2524654590984607</v>
       </c>
       <c r="D18">
-        <v>0.8998328563097706</v>
+        <v>1.53919425166635</v>
       </c>
       <c r="E18">
-        <v>1.223818666748404</v>
+        <v>0.2524654590984607</v>
       </c>
       <c r="F18">
-        <v>0.8734191763370657</v>
+        <v>0.5076075292482196</v>
       </c>
       <c r="G18">
-        <v>0.8599796921775044</v>
+        <v>1.186726939150263</v>
       </c>
       <c r="H18">
-        <v>1.144116811400104</v>
+        <v>0.908075979937792</v>
       </c>
       <c r="I18">
-        <v>0.8122374857920637</v>
+        <v>0.7403039790582365</v>
       </c>
       <c r="J18">
-        <v>0.8998328563097706</v>
+        <v>1.53919425166635</v>
       </c>
       <c r="K18">
-        <v>0.8998328563097706</v>
+        <v>1.53919425166635</v>
       </c>
       <c r="L18">
-        <v>0.8734191763370657</v>
+        <v>0.5076075292482196</v>
       </c>
       <c r="M18">
-        <v>1.048618921542735</v>
+        <v>0.3800364941733402</v>
       </c>
       <c r="N18">
-        <v>1.048618921542735</v>
+        <v>0.3800364941733402</v>
       </c>
       <c r="O18">
-        <v>1.080451551495191</v>
+        <v>0.5560496560948242</v>
       </c>
       <c r="P18">
-        <v>0.9990235664650801</v>
+        <v>0.7664224133376768</v>
       </c>
       <c r="Q18">
-        <v>0.9990235664650801</v>
+        <v>0.7664224133376768</v>
       </c>
       <c r="R18">
-        <v>0.9742258889262527</v>
+        <v>0.9596153729198451</v>
       </c>
       <c r="S18">
-        <v>0.9742258889262527</v>
+        <v>0.9596153729198451</v>
       </c>
       <c r="T18">
-        <v>0.9689007814608188</v>
+        <v>0.8557290230265536</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1618,58 +1675,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.208742345840154</v>
+        <v>0.999208457531287</v>
       </c>
       <c r="D19">
-        <v>0.7923945562693139</v>
+        <v>1.003455079705105</v>
       </c>
       <c r="E19">
-        <v>1.208742345840154</v>
+        <v>0.999208457531287</v>
       </c>
       <c r="F19">
-        <v>0.846781111899922</v>
+        <v>0.9988543346555983</v>
       </c>
       <c r="G19">
-        <v>0.8734813319885301</v>
+        <v>0.9985097368416292</v>
       </c>
       <c r="H19">
-        <v>1.118880797814664</v>
+        <v>0.9990965098792857</v>
       </c>
       <c r="I19">
-        <v>0.8520880594203418</v>
+        <v>0.998797493702943</v>
       </c>
       <c r="J19">
-        <v>0.7923945562693139</v>
+        <v>1.003455079705105</v>
       </c>
       <c r="K19">
-        <v>0.7923945562693139</v>
+        <v>1.003455079705105</v>
       </c>
       <c r="L19">
-        <v>0.846781111899922</v>
+        <v>0.9988543346555983</v>
       </c>
       <c r="M19">
-        <v>1.027761728870038</v>
+        <v>0.9990313960934426</v>
       </c>
       <c r="N19">
-        <v>1.027761728870038</v>
+        <v>0.9990313960934426</v>
       </c>
       <c r="O19">
-        <v>1.05813475185158</v>
+        <v>0.9990531006887237</v>
       </c>
       <c r="P19">
-        <v>0.9493060046697966</v>
+        <v>1.00050595729733</v>
       </c>
       <c r="Q19">
-        <v>0.9493060046697966</v>
+        <v>1.00050595729733</v>
       </c>
       <c r="R19">
-        <v>0.910078142569676</v>
+        <v>1.001243237899274</v>
       </c>
       <c r="S19">
-        <v>0.910078142569676</v>
+        <v>1.001243237899274</v>
       </c>
       <c r="T19">
-        <v>0.9487280338721543</v>
+        <v>0.9996536020526414</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1680,58 +1737,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9998098638866774</v>
+        <v>0.9983368492440228</v>
       </c>
       <c r="D20">
-        <v>0.9915557112424485</v>
+        <v>1.016783358394947</v>
       </c>
       <c r="E20">
-        <v>0.9998098638866774</v>
+        <v>0.9983368492440228</v>
       </c>
       <c r="F20">
-        <v>0.9997025313974955</v>
+        <v>0.9969831909762562</v>
       </c>
       <c r="G20">
-        <v>1.000517729476282</v>
+        <v>0.9963476550026472</v>
       </c>
       <c r="H20">
-        <v>1.001822993843897</v>
+        <v>0.9996274053393231</v>
       </c>
       <c r="I20">
-        <v>1.000972930761219</v>
+        <v>1.005829307328</v>
       </c>
       <c r="J20">
-        <v>0.9915557112424485</v>
+        <v>1.016783358394947</v>
       </c>
       <c r="K20">
-        <v>0.9915557112424485</v>
+        <v>1.016783358394947</v>
       </c>
       <c r="L20">
-        <v>0.9997025313974955</v>
+        <v>0.9969831909762562</v>
       </c>
       <c r="M20">
-        <v>0.9997561976420865</v>
+        <v>0.9976600201101395</v>
       </c>
       <c r="N20">
-        <v>0.9997561976420865</v>
+        <v>0.9976600201101395</v>
       </c>
       <c r="O20">
-        <v>1.000445129709357</v>
+        <v>0.9983158151865341</v>
       </c>
       <c r="P20">
-        <v>0.9970227021755406</v>
+        <v>1.004034466205075</v>
       </c>
       <c r="Q20">
-        <v>0.9970227021755403</v>
+        <v>1.004034466205075</v>
       </c>
       <c r="R20">
-        <v>0.9956559544422674</v>
+        <v>1.007221689252543</v>
       </c>
       <c r="S20">
-        <v>0.9956559544422674</v>
+        <v>1.007221689252543</v>
       </c>
       <c r="T20">
-        <v>0.9990636267680033</v>
+        <v>1.002317961047533</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1742,58 +1799,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9965996471491063</v>
+        <v>1.002521294339786</v>
       </c>
       <c r="D21">
-        <v>1.032878453532439</v>
+        <v>1.047408718375914</v>
       </c>
       <c r="E21">
-        <v>0.9965996471491063</v>
+        <v>1.002521294339786</v>
       </c>
       <c r="F21">
-        <v>0.9977199701763002</v>
+        <v>0.9997040670494584</v>
       </c>
       <c r="G21">
-        <v>1.000169252366526</v>
+        <v>0.9933300795949923</v>
       </c>
       <c r="H21">
-        <v>0.9989794038845281</v>
+        <v>0.9994280159427856</v>
       </c>
       <c r="I21">
-        <v>1.002300381124696</v>
+        <v>0.9903562844195494</v>
       </c>
       <c r="J21">
-        <v>1.032878453532439</v>
+        <v>1.047408718375914</v>
       </c>
       <c r="K21">
-        <v>1.032878453532439</v>
+        <v>1.047408718375914</v>
       </c>
       <c r="L21">
-        <v>0.9977199701763002</v>
+        <v>0.9997040670494584</v>
       </c>
       <c r="M21">
-        <v>0.9971598086627033</v>
+        <v>1.001112680694622</v>
       </c>
       <c r="N21">
-        <v>0.9971598086627033</v>
+        <v>1.001112680694622</v>
       </c>
       <c r="O21">
-        <v>0.9977663404033116</v>
+        <v>1.000551125777343</v>
       </c>
       <c r="P21">
-        <v>1.009066023619282</v>
+        <v>1.016544693255053</v>
       </c>
       <c r="Q21">
-        <v>1.009066023619282</v>
+        <v>1.016544693255053</v>
       </c>
       <c r="R21">
-        <v>1.015019131097571</v>
+        <v>1.024260699535268</v>
       </c>
       <c r="S21">
-        <v>1.015019131097571</v>
+        <v>1.024260699535268</v>
       </c>
       <c r="T21">
-        <v>1.004774518038933</v>
+        <v>1.005458076620414</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1804,58 +1861,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9979529816929837</v>
+        <v>0.9920446302045643</v>
       </c>
       <c r="D22">
-        <v>1.142027234367606</v>
+        <v>1.071051514714167</v>
       </c>
       <c r="E22">
-        <v>0.9979529816929837</v>
+        <v>0.9920446302045643</v>
       </c>
       <c r="F22">
-        <v>0.9548748389948418</v>
+        <v>0.9950890750067719</v>
       </c>
       <c r="G22">
-        <v>1.033693055258503</v>
+        <v>0.9954105318570978</v>
       </c>
       <c r="H22">
-        <v>0.9938407630462037</v>
+        <v>0.9917994037693324</v>
       </c>
       <c r="I22">
-        <v>0.9899218139204938</v>
+        <v>0.9929555741231759</v>
       </c>
       <c r="J22">
-        <v>1.142027234367606</v>
+        <v>1.071051514714167</v>
       </c>
       <c r="K22">
-        <v>1.142027234367606</v>
+        <v>1.071051514714167</v>
       </c>
       <c r="L22">
-        <v>0.9548748389948418</v>
+        <v>0.9950890750067719</v>
       </c>
       <c r="M22">
-        <v>0.9764139103439128</v>
+        <v>0.9935668526056681</v>
       </c>
       <c r="N22">
-        <v>0.9764139103439128</v>
+        <v>0.9935668526056681</v>
       </c>
       <c r="O22">
-        <v>0.9822228612446765</v>
+        <v>0.9929777029935561</v>
       </c>
       <c r="P22">
-        <v>1.031618351685144</v>
+        <v>1.019395073308501</v>
       </c>
       <c r="Q22">
-        <v>1.031618351685144</v>
+        <v>1.019395073308501</v>
       </c>
       <c r="R22">
-        <v>1.05922057235576</v>
+        <v>1.032309183659917</v>
       </c>
       <c r="S22">
-        <v>1.05922057235576</v>
+        <v>1.032309183659917</v>
       </c>
       <c r="T22">
-        <v>1.018718447880105</v>
+        <v>1.006391788279185</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1866,58 +1923,1236 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>1.002621428100762</v>
+      </c>
+      <c r="D23">
+        <v>1.250814630877674</v>
+      </c>
+      <c r="E23">
+        <v>1.002621428100762</v>
+      </c>
+      <c r="F23">
+        <v>0.9843042375330987</v>
+      </c>
+      <c r="G23">
+        <v>0.9894431392254502</v>
+      </c>
+      <c r="H23">
+        <v>0.9789800100535136</v>
+      </c>
+      <c r="I23">
+        <v>0.8355945338166691</v>
+      </c>
+      <c r="J23">
+        <v>1.250814630877674</v>
+      </c>
+      <c r="K23">
+        <v>1.250814630877674</v>
+      </c>
+      <c r="L23">
+        <v>0.9843042375330987</v>
+      </c>
+      <c r="M23">
+        <v>0.9934628328169306</v>
+      </c>
+      <c r="N23">
+        <v>0.9934628328169306</v>
+      </c>
+      <c r="O23">
+        <v>0.9886352252291249</v>
+      </c>
+      <c r="P23">
+        <v>1.079246765503845</v>
+      </c>
+      <c r="Q23">
+        <v>1.079246765503845</v>
+      </c>
+      <c r="R23">
+        <v>1.122138731847303</v>
+      </c>
+      <c r="S23">
+        <v>1.122138731847303</v>
+      </c>
+      <c r="T23">
+        <v>1.006959663267861</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.02816246208286063</v>
+      </c>
+      <c r="D24">
+        <v>1.947503822981913</v>
+      </c>
+      <c r="E24">
+        <v>0.02816246208286063</v>
+      </c>
+      <c r="F24">
+        <v>0.8936585146339781</v>
+      </c>
+      <c r="G24">
+        <v>1.444407193392876</v>
+      </c>
+      <c r="H24">
+        <v>1.088287096789949</v>
+      </c>
+      <c r="I24">
+        <v>0.008384910052905486</v>
+      </c>
+      <c r="J24">
+        <v>1.947503822981913</v>
+      </c>
+      <c r="K24">
+        <v>1.947503822981913</v>
+      </c>
+      <c r="L24">
+        <v>0.8936585146339781</v>
+      </c>
+      <c r="M24">
+        <v>0.4609104883584194</v>
+      </c>
+      <c r="N24">
+        <v>0.4609104883584194</v>
+      </c>
+      <c r="O24">
+        <v>0.6700360245022626</v>
+      </c>
+      <c r="P24">
+        <v>0.956441599899584</v>
+      </c>
+      <c r="Q24">
+        <v>0.956441599899584</v>
+      </c>
+      <c r="R24">
+        <v>1.204207155670166</v>
+      </c>
+      <c r="S24">
+        <v>1.204207155670166</v>
+      </c>
+      <c r="T24">
+        <v>0.9017339999890804</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.978384880534225</v>
+      </c>
+      <c r="D25">
+        <v>0.8299688759072553</v>
+      </c>
+      <c r="E25">
+        <v>1.978384880534225</v>
+      </c>
+      <c r="F25">
+        <v>1.050809254152312</v>
+      </c>
+      <c r="G25">
+        <v>1.105508623078699</v>
+      </c>
+      <c r="H25">
+        <v>1.324511104887578</v>
+      </c>
+      <c r="I25">
+        <v>1.97000817876325</v>
+      </c>
+      <c r="J25">
+        <v>0.8299688759072553</v>
+      </c>
+      <c r="K25">
+        <v>0.8299688759072553</v>
+      </c>
+      <c r="L25">
+        <v>1.050809254152312</v>
+      </c>
+      <c r="M25">
+        <v>1.514597067343268</v>
+      </c>
+      <c r="N25">
+        <v>1.514597067343268</v>
+      </c>
+      <c r="O25">
+        <v>1.451235079858038</v>
+      </c>
+      <c r="P25">
+        <v>1.286387670197931</v>
+      </c>
+      <c r="Q25">
+        <v>1.286387670197931</v>
+      </c>
+      <c r="R25">
+        <v>1.172282971625262</v>
+      </c>
+      <c r="S25">
+        <v>1.172282971625262</v>
+      </c>
+      <c r="T25">
+        <v>1.376531819553886</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.139695438201505</v>
+      </c>
+      <c r="D26">
+        <v>-0.000422063954842297</v>
+      </c>
+      <c r="E26">
+        <v>1.139695438201505</v>
+      </c>
+      <c r="F26">
+        <v>1.453649013070499</v>
+      </c>
+      <c r="G26">
+        <v>0.5717459883016168</v>
+      </c>
+      <c r="H26">
+        <v>1.70883991090389</v>
+      </c>
+      <c r="I26">
+        <v>1.141189664377114</v>
+      </c>
+      <c r="J26">
+        <v>-0.000422063954842297</v>
+      </c>
+      <c r="K26">
+        <v>-0.000422063954842297</v>
+      </c>
+      <c r="L26">
+        <v>1.453649013070499</v>
+      </c>
+      <c r="M26">
+        <v>1.296672225636002</v>
+      </c>
+      <c r="N26">
+        <v>1.296672225636002</v>
+      </c>
+      <c r="O26">
+        <v>1.434061454058631</v>
+      </c>
+      <c r="P26">
+        <v>0.864307462439054</v>
+      </c>
+      <c r="Q26">
+        <v>0.864307462439054</v>
+      </c>
+      <c r="R26">
+        <v>0.64812508084058</v>
+      </c>
+      <c r="S26">
+        <v>0.64812508084058</v>
+      </c>
+      <c r="T26">
+        <v>1.002449658483297</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.7216725738718084</v>
+      </c>
+      <c r="D27">
+        <v>0.8100617453708652</v>
+      </c>
+      <c r="E27">
+        <v>0.7216725738718084</v>
+      </c>
+      <c r="F27">
+        <v>0.8021127364917493</v>
+      </c>
+      <c r="G27">
+        <v>1.304452449442555</v>
+      </c>
+      <c r="H27">
+        <v>0.1598485097874724</v>
+      </c>
+      <c r="I27">
+        <v>0.1338779895585501</v>
+      </c>
+      <c r="J27">
+        <v>0.8100617453708652</v>
+      </c>
+      <c r="K27">
+        <v>0.8100617453708652</v>
+      </c>
+      <c r="L27">
+        <v>0.8021127364917493</v>
+      </c>
+      <c r="M27">
+        <v>0.7618926551817788</v>
+      </c>
+      <c r="N27">
+        <v>0.7618926551817788</v>
+      </c>
+      <c r="O27">
+        <v>0.5612112733836767</v>
+      </c>
+      <c r="P27">
+        <v>0.7779490185781409</v>
+      </c>
+      <c r="Q27">
+        <v>0.7779490185781409</v>
+      </c>
+      <c r="R27">
+        <v>0.785977200276322</v>
+      </c>
+      <c r="S27">
+        <v>0.785977200276322</v>
+      </c>
+      <c r="T27">
+        <v>0.6553376674205</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.4896915439846395</v>
+      </c>
+      <c r="D28">
+        <v>1.563726112658459</v>
+      </c>
+      <c r="E28">
+        <v>0.4896915439846395</v>
+      </c>
+      <c r="F28">
+        <v>0.3600815523740016</v>
+      </c>
+      <c r="G28">
+        <v>0.9049710619826785</v>
+      </c>
+      <c r="H28">
+        <v>0.98851176542111</v>
+      </c>
+      <c r="I28">
+        <v>0.2006914790345002</v>
+      </c>
+      <c r="J28">
+        <v>1.563726112658459</v>
+      </c>
+      <c r="K28">
+        <v>1.563726112658459</v>
+      </c>
+      <c r="L28">
+        <v>0.3600815523740016</v>
+      </c>
+      <c r="M28">
+        <v>0.4248865481793206</v>
+      </c>
+      <c r="N28">
+        <v>0.4248865481793206</v>
+      </c>
+      <c r="O28">
+        <v>0.6127616205932503</v>
+      </c>
+      <c r="P28">
+        <v>0.8044997363390335</v>
+      </c>
+      <c r="Q28">
+        <v>0.8044997363390335</v>
+      </c>
+      <c r="R28">
+        <v>0.9943063304188899</v>
+      </c>
+      <c r="S28">
+        <v>0.9943063304188899</v>
+      </c>
+      <c r="T28">
+        <v>0.7512789192425648</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.7401734415562236</v>
+      </c>
+      <c r="D29">
+        <v>1.332717961315786</v>
+      </c>
+      <c r="E29">
+        <v>0.7401734415562236</v>
+      </c>
+      <c r="F29">
+        <v>0.5322704974433264</v>
+      </c>
+      <c r="G29">
+        <v>0.8911587992759364</v>
+      </c>
+      <c r="H29">
+        <v>1.041398673533703</v>
+      </c>
+      <c r="I29">
+        <v>0.4014102716328738</v>
+      </c>
+      <c r="J29">
+        <v>1.332717961315786</v>
+      </c>
+      <c r="K29">
+        <v>1.332717961315786</v>
+      </c>
+      <c r="L29">
+        <v>0.5322704974433264</v>
+      </c>
+      <c r="M29">
+        <v>0.6362219694997751</v>
+      </c>
+      <c r="N29">
+        <v>0.6362219694997751</v>
+      </c>
+      <c r="O29">
+        <v>0.7712808708444175</v>
+      </c>
+      <c r="P29">
+        <v>0.868387300105112</v>
+      </c>
+      <c r="Q29">
+        <v>0.8683873001051118</v>
+      </c>
+      <c r="R29">
+        <v>0.9844699654077802</v>
+      </c>
+      <c r="S29">
+        <v>0.9844699654077802</v>
+      </c>
+      <c r="T29">
+        <v>0.823188274126308</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.223818666748404</v>
+      </c>
+      <c r="D30">
+        <v>0.8998328563097706</v>
+      </c>
+      <c r="E30">
+        <v>1.223818666748404</v>
+      </c>
+      <c r="F30">
+        <v>0.8734191763370657</v>
+      </c>
+      <c r="G30">
+        <v>0.8599796921775044</v>
+      </c>
+      <c r="H30">
+        <v>1.144116811400104</v>
+      </c>
+      <c r="I30">
+        <v>0.8122374857920637</v>
+      </c>
+      <c r="J30">
+        <v>0.8998328563097706</v>
+      </c>
+      <c r="K30">
+        <v>0.8998328563097706</v>
+      </c>
+      <c r="L30">
+        <v>0.8734191763370657</v>
+      </c>
+      <c r="M30">
+        <v>1.048618921542735</v>
+      </c>
+      <c r="N30">
+        <v>1.048618921542735</v>
+      </c>
+      <c r="O30">
+        <v>1.080451551495191</v>
+      </c>
+      <c r="P30">
+        <v>0.9990235664650801</v>
+      </c>
+      <c r="Q30">
+        <v>0.9990235664650801</v>
+      </c>
+      <c r="R30">
+        <v>0.9742258889262527</v>
+      </c>
+      <c r="S30">
+        <v>0.9742258889262527</v>
+      </c>
+      <c r="T30">
+        <v>0.9689007814608188</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>1.208742345840154</v>
+      </c>
+      <c r="D31">
+        <v>0.7923945562693139</v>
+      </c>
+      <c r="E31">
+        <v>1.208742345840154</v>
+      </c>
+      <c r="F31">
+        <v>0.846781111899922</v>
+      </c>
+      <c r="G31">
+        <v>0.8734813319885301</v>
+      </c>
+      <c r="H31">
+        <v>1.118880797814664</v>
+      </c>
+      <c r="I31">
+        <v>0.8520880594203418</v>
+      </c>
+      <c r="J31">
+        <v>0.7923945562693139</v>
+      </c>
+      <c r="K31">
+        <v>0.7923945562693139</v>
+      </c>
+      <c r="L31">
+        <v>0.846781111899922</v>
+      </c>
+      <c r="M31">
+        <v>1.027761728870038</v>
+      </c>
+      <c r="N31">
+        <v>1.027761728870038</v>
+      </c>
+      <c r="O31">
+        <v>1.05813475185158</v>
+      </c>
+      <c r="P31">
+        <v>0.9493060046697966</v>
+      </c>
+      <c r="Q31">
+        <v>0.9493060046697966</v>
+      </c>
+      <c r="R31">
+        <v>0.910078142569676</v>
+      </c>
+      <c r="S31">
+        <v>0.910078142569676</v>
+      </c>
+      <c r="T31">
+        <v>0.9487280338721543</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>0.235250213358685</v>
+      </c>
+      <c r="D32">
+        <v>2.191279241048219</v>
+      </c>
+      <c r="E32">
+        <v>0.235250213358685</v>
+      </c>
+      <c r="F32">
+        <v>0.1847572682520548</v>
+      </c>
+      <c r="G32">
+        <v>0.9055852634273972</v>
+      </c>
+      <c r="H32">
+        <v>0.9221334773438354</v>
+      </c>
+      <c r="I32">
+        <v>-0.0004979542895890413</v>
+      </c>
+      <c r="J32">
+        <v>2.191279241048219</v>
+      </c>
+      <c r="K32">
+        <v>2.191279241048219</v>
+      </c>
+      <c r="L32">
+        <v>0.1847572682520548</v>
+      </c>
+      <c r="M32">
+        <v>0.2100037408053699</v>
+      </c>
+      <c r="N32">
+        <v>0.2100037408053699</v>
+      </c>
+      <c r="O32">
+        <v>0.4473803196515251</v>
+      </c>
+      <c r="P32">
+        <v>0.8704289075529862</v>
+      </c>
+      <c r="Q32">
+        <v>0.8704289075529862</v>
+      </c>
+      <c r="R32">
+        <v>1.200641490926794</v>
+      </c>
+      <c r="S32">
+        <v>1.200641490926794</v>
+      </c>
+      <c r="T32">
+        <v>0.7397512515234338</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>3.408429246936841</v>
+      </c>
+      <c r="D33">
+        <v>1.705130747645789</v>
+      </c>
+      <c r="E33">
+        <v>3.408429246936841</v>
+      </c>
+      <c r="F33">
+        <v>1.705359604148421</v>
+      </c>
+      <c r="G33">
+        <v>0.1417804401631579</v>
+      </c>
+      <c r="H33">
+        <v>0.03859684174157894</v>
+      </c>
+      <c r="I33">
+        <v>5.109571382874736</v>
+      </c>
+      <c r="J33">
+        <v>1.705130747645789</v>
+      </c>
+      <c r="K33">
+        <v>1.705130747645789</v>
+      </c>
+      <c r="L33">
+        <v>1.705359604148421</v>
+      </c>
+      <c r="M33">
+        <v>2.556894425542631</v>
+      </c>
+      <c r="N33">
+        <v>2.556894425542631</v>
+      </c>
+      <c r="O33">
+        <v>1.717461897608947</v>
+      </c>
+      <c r="P33">
+        <v>2.272973199577017</v>
+      </c>
+      <c r="Q33">
+        <v>2.272973199577017</v>
+      </c>
+      <c r="R33">
+        <v>2.13101258659421</v>
+      </c>
+      <c r="S33">
+        <v>2.13101258659421</v>
+      </c>
+      <c r="T33">
+        <v>2.018144710585088</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>0.004291435083157893</v>
+      </c>
+      <c r="D34">
+        <v>2.504330765699474</v>
+      </c>
+      <c r="E34">
+        <v>0.004291435083157893</v>
+      </c>
+      <c r="F34">
+        <v>0.1505663360721052</v>
+      </c>
+      <c r="G34">
+        <v>1.05467414155421</v>
+      </c>
+      <c r="H34">
+        <v>1.446517446318526</v>
+      </c>
+      <c r="I34">
+        <v>0.5312541787536842</v>
+      </c>
+      <c r="J34">
+        <v>2.504330765699474</v>
+      </c>
+      <c r="K34">
+        <v>2.504330765699474</v>
+      </c>
+      <c r="L34">
+        <v>0.1505663360721052</v>
+      </c>
+      <c r="M34">
+        <v>0.07742888557763156</v>
+      </c>
+      <c r="N34">
+        <v>0.07742888557763156</v>
+      </c>
+      <c r="O34">
+        <v>0.5337917391579298</v>
+      </c>
+      <c r="P34">
+        <v>0.8863961789515789</v>
+      </c>
+      <c r="Q34">
+        <v>0.8863961789515789</v>
+      </c>
+      <c r="R34">
+        <v>1.290879825638553</v>
+      </c>
+      <c r="S34">
+        <v>1.290879825638553</v>
+      </c>
+      <c r="T34">
+        <v>0.9486057172468595</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>0.6469904157647608</v>
+      </c>
+      <c r="D35">
+        <v>0.4251567583460668</v>
+      </c>
+      <c r="E35">
+        <v>0.6469904157647608</v>
+      </c>
+      <c r="F35">
+        <v>0.4475951815016008</v>
+      </c>
+      <c r="G35">
+        <v>0.4302072017506959</v>
+      </c>
+      <c r="H35">
+        <v>0.6999399435939343</v>
+      </c>
+      <c r="I35">
+        <v>0.4115222865737195</v>
+      </c>
+      <c r="J35">
+        <v>0.4251567583460668</v>
+      </c>
+      <c r="K35">
+        <v>0.4251567583460668</v>
+      </c>
+      <c r="L35">
+        <v>0.4475951815016008</v>
+      </c>
+      <c r="M35">
+        <v>0.5472927986331808</v>
+      </c>
+      <c r="N35">
+        <v>0.5472927986331808</v>
+      </c>
+      <c r="O35">
+        <v>0.5981751802867653</v>
+      </c>
+      <c r="P35">
+        <v>0.5065807852041427</v>
+      </c>
+      <c r="Q35">
+        <v>0.5065807852041428</v>
+      </c>
+      <c r="R35">
+        <v>0.4862247784896239</v>
+      </c>
+      <c r="S35">
+        <v>0.4862247784896239</v>
+      </c>
+      <c r="T35">
+        <v>0.5102352979217964</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>0.9998098638866774</v>
+      </c>
+      <c r="D36">
+        <v>0.9915557112424485</v>
+      </c>
+      <c r="E36">
+        <v>0.9998098638866774</v>
+      </c>
+      <c r="F36">
+        <v>0.9997025313974955</v>
+      </c>
+      <c r="G36">
+        <v>1.000517729476282</v>
+      </c>
+      <c r="H36">
+        <v>1.001822993843897</v>
+      </c>
+      <c r="I36">
+        <v>1.000972930761219</v>
+      </c>
+      <c r="J36">
+        <v>0.9915557112424485</v>
+      </c>
+      <c r="K36">
+        <v>0.9915557112424485</v>
+      </c>
+      <c r="L36">
+        <v>0.9997025313974955</v>
+      </c>
+      <c r="M36">
+        <v>0.9997561976420865</v>
+      </c>
+      <c r="N36">
+        <v>0.9997561976420865</v>
+      </c>
+      <c r="O36">
+        <v>1.000445129709357</v>
+      </c>
+      <c r="P36">
+        <v>0.9970227021755406</v>
+      </c>
+      <c r="Q36">
+        <v>0.9970227021755403</v>
+      </c>
+      <c r="R36">
+        <v>0.9956559544422674</v>
+      </c>
+      <c r="S36">
+        <v>0.9956559544422674</v>
+      </c>
+      <c r="T36">
+        <v>0.9990636267680033</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>0.9965996471491063</v>
+      </c>
+      <c r="D37">
+        <v>1.032878453532439</v>
+      </c>
+      <c r="E37">
+        <v>0.9965996471491063</v>
+      </c>
+      <c r="F37">
+        <v>0.9977199701763002</v>
+      </c>
+      <c r="G37">
+        <v>1.000169252366526</v>
+      </c>
+      <c r="H37">
+        <v>0.9989794038845281</v>
+      </c>
+      <c r="I37">
+        <v>1.002300381124696</v>
+      </c>
+      <c r="J37">
+        <v>1.032878453532439</v>
+      </c>
+      <c r="K37">
+        <v>1.032878453532439</v>
+      </c>
+      <c r="L37">
+        <v>0.9977199701763002</v>
+      </c>
+      <c r="M37">
+        <v>0.9971598086627033</v>
+      </c>
+      <c r="N37">
+        <v>0.9971598086627033</v>
+      </c>
+      <c r="O37">
+        <v>0.9977663404033116</v>
+      </c>
+      <c r="P37">
+        <v>1.009066023619282</v>
+      </c>
+      <c r="Q37">
+        <v>1.009066023619282</v>
+      </c>
+      <c r="R37">
+        <v>1.015019131097571</v>
+      </c>
+      <c r="S37">
+        <v>1.015019131097571</v>
+      </c>
+      <c r="T37">
+        <v>1.004774518038933</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>0.9979529816929837</v>
+      </c>
+      <c r="D38">
+        <v>1.142027234367606</v>
+      </c>
+      <c r="E38">
+        <v>0.9979529816929837</v>
+      </c>
+      <c r="F38">
+        <v>0.9548748389948418</v>
+      </c>
+      <c r="G38">
+        <v>1.033693055258503</v>
+      </c>
+      <c r="H38">
+        <v>0.9938407630462037</v>
+      </c>
+      <c r="I38">
+        <v>0.9899218139204938</v>
+      </c>
+      <c r="J38">
+        <v>1.142027234367606</v>
+      </c>
+      <c r="K38">
+        <v>1.142027234367606</v>
+      </c>
+      <c r="L38">
+        <v>0.9548748389948418</v>
+      </c>
+      <c r="M38">
+        <v>0.9764139103439128</v>
+      </c>
+      <c r="N38">
+        <v>0.9764139103439128</v>
+      </c>
+      <c r="O38">
+        <v>0.9822228612446765</v>
+      </c>
+      <c r="P38">
+        <v>1.031618351685144</v>
+      </c>
+      <c r="Q38">
+        <v>1.031618351685144</v>
+      </c>
+      <c r="R38">
+        <v>1.05922057235576</v>
+      </c>
+      <c r="S38">
+        <v>1.05922057235576</v>
+      </c>
+      <c r="T38">
+        <v>1.018718447880105</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>0.7111392718243243</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>0.8045770884521859</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>0.7111392718243243</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>1.006288395017029</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>1.115851747890229</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>1.031067143442572</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>1.163636169032363</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>0.8045770884521859</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>0.8045770884521859</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>1.006288395017029</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>0.8587138334206766</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>0.8587138334206766</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>0.9161649367613084</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>0.8406682517645131</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>0.8406682517645131</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>0.8316454609364312</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>0.8316454609364312</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>0.9720933026097839</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>0.8624609490658306</v>
+      </c>
+      <c r="D40">
+        <v>1.053081933396043</v>
+      </c>
+      <c r="E40">
+        <v>0.8624609490658306</v>
+      </c>
+      <c r="F40">
+        <v>0.9801933790577319</v>
+      </c>
+      <c r="G40">
+        <v>1.065776422598363</v>
+      </c>
+      <c r="H40">
+        <v>0.8239324031786289</v>
+      </c>
+      <c r="I40">
+        <v>1.104101383323297</v>
+      </c>
+      <c r="J40">
+        <v>1.053081933396043</v>
+      </c>
+      <c r="K40">
+        <v>1.053081933396043</v>
+      </c>
+      <c r="L40">
+        <v>0.9801933790577319</v>
+      </c>
+      <c r="M40">
+        <v>0.9213271640617813</v>
+      </c>
+      <c r="N40">
+        <v>0.9213271640617813</v>
+      </c>
+      <c r="O40">
+        <v>0.8888622437673971</v>
+      </c>
+      <c r="P40">
+        <v>0.9652454205065352</v>
+      </c>
+      <c r="Q40">
+        <v>0.9652454205065349</v>
+      </c>
+      <c r="R40">
+        <v>0.9872045487289118</v>
+      </c>
+      <c r="S40">
+        <v>0.9872045487289118</v>
+      </c>
+      <c r="T40">
+        <v>0.9815910784366491</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>0.9621867883428433</v>
+      </c>
+      <c r="D41">
+        <v>1.127487937277371</v>
+      </c>
+      <c r="E41">
+        <v>0.9621867883428433</v>
+      </c>
+      <c r="F41">
+        <v>1.025752727590741</v>
+      </c>
+      <c r="G41">
+        <v>1.037746180696985</v>
+      </c>
+      <c r="H41">
+        <v>0.9638477229647238</v>
+      </c>
+      <c r="I41">
+        <v>0.7360775853715361</v>
+      </c>
+      <c r="J41">
+        <v>1.127487937277371</v>
+      </c>
+      <c r="K41">
+        <v>1.127487937277371</v>
+      </c>
+      <c r="L41">
+        <v>1.025752727590741</v>
+      </c>
+      <c r="M41">
+        <v>0.9939697579667923</v>
+      </c>
+      <c r="N41">
+        <v>0.9939697579667923</v>
+      </c>
+      <c r="O41">
+        <v>0.9839290796327695</v>
+      </c>
+      <c r="P41">
+        <v>1.038475817736985</v>
+      </c>
+      <c r="Q41">
+        <v>1.038475817736985</v>
+      </c>
+      <c r="R41">
+        <v>1.060728847622082</v>
+      </c>
+      <c r="S41">
+        <v>1.060728847622082</v>
+      </c>
+      <c r="T41">
+        <v>0.9755164903740333</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>1.605087780532775</v>
+      </c>
+      <c r="D42">
+        <v>0.3437414415467983</v>
+      </c>
+      <c r="E42">
+        <v>1.605087780532775</v>
+      </c>
+      <c r="F42">
+        <v>1.091529070357392</v>
+      </c>
+      <c r="G42">
+        <v>1.10745204253016</v>
+      </c>
+      <c r="H42">
+        <v>1.243331561510359</v>
+      </c>
+      <c r="I42">
+        <v>0.3406978971813596</v>
+      </c>
+      <c r="J42">
+        <v>0.3437414415467983</v>
+      </c>
+      <c r="K42">
+        <v>0.3437414415467983</v>
+      </c>
+      <c r="L42">
+        <v>1.091529070357392</v>
+      </c>
+      <c r="M42">
+        <v>1.348308425445083</v>
+      </c>
+      <c r="N42">
+        <v>1.348308425445083</v>
+      </c>
+      <c r="O42">
+        <v>1.313316137466842</v>
+      </c>
+      <c r="P42">
+        <v>1.013452764145655</v>
+      </c>
+      <c r="Q42">
+        <v>1.013452764145655</v>
+      </c>
+      <c r="R42">
+        <v>0.8460249334959409</v>
+      </c>
+      <c r="S42">
+        <v>0.8460249334959409</v>
+      </c>
+      <c r="T42">
+        <v>0.9553066322764741</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/Alpha1F-HW05.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha1F-HW05.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,46 +85,43 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
-  </si>
-  <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,7 +509,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -552,58 +582,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -614,58 +644,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.033295320830496</v>
+        <v>0.9983368492440228</v>
       </c>
       <c r="D3">
-        <v>0.9603982863342367</v>
+        <v>1.016783358394947</v>
       </c>
       <c r="E3">
-        <v>0.9568466131739304</v>
+        <v>0.9983368492440228</v>
       </c>
       <c r="F3">
-        <v>1.033295320830496</v>
+        <v>0.9969831909762562</v>
       </c>
       <c r="G3">
-        <v>0.9480679269782257</v>
+        <v>0.9963476550026472</v>
       </c>
       <c r="H3">
-        <v>1.001687357152962</v>
+        <v>0.9996274053393231</v>
       </c>
       <c r="I3">
-        <v>0.9952719105738961</v>
+        <v>1.005829307328</v>
       </c>
       <c r="J3">
-        <v>0.9603982863342367</v>
+        <v>1.016783358394947</v>
       </c>
       <c r="K3">
-        <v>1.033295320830496</v>
+        <v>1.016783358394947</v>
       </c>
       <c r="L3">
-        <v>0.9568466131739304</v>
+        <v>0.9969831909762562</v>
       </c>
       <c r="M3">
-        <v>0.9586224497540836</v>
+        <v>0.9976600201101395</v>
       </c>
       <c r="N3">
-        <v>0.9586224497540836</v>
+        <v>0.9976600201101395</v>
       </c>
       <c r="O3">
-        <v>0.9729774188870431</v>
+        <v>0.9983158151865341</v>
       </c>
       <c r="P3">
-        <v>0.9835134067795545</v>
+        <v>1.004034466205075</v>
       </c>
       <c r="Q3">
-        <v>0.9835134067795545</v>
+        <v>1.004034466205075</v>
       </c>
       <c r="R3">
-        <v>0.9959588852922899</v>
+        <v>1.007221689252543</v>
       </c>
       <c r="S3">
-        <v>0.9959588852922899</v>
+        <v>1.007221689252543</v>
       </c>
       <c r="T3">
-        <v>0.9825945691739579</v>
+        <v>1.002317961047533</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -676,58 +706,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.078802738517202</v>
+        <v>0.8624609490658306</v>
       </c>
       <c r="D4">
-        <v>0.9490389450926033</v>
+        <v>1.053081933396043</v>
       </c>
       <c r="E4">
-        <v>0.9374798231982281</v>
+        <v>0.8624609490658306</v>
       </c>
       <c r="F4">
-        <v>1.078802738517202</v>
+        <v>0.9801933790577319</v>
       </c>
       <c r="G4">
-        <v>0.9194045203581911</v>
+        <v>1.065776422598363</v>
       </c>
       <c r="H4">
-        <v>0.9723475474058439</v>
+        <v>0.8239324031786289</v>
       </c>
       <c r="I4">
-        <v>1.003098938229908</v>
+        <v>1.104101383323297</v>
       </c>
       <c r="J4">
-        <v>0.9490389450926033</v>
+        <v>1.053081933396043</v>
       </c>
       <c r="K4">
-        <v>1.078802738517202</v>
+        <v>1.053081933396043</v>
       </c>
       <c r="L4">
-        <v>0.9374798231982281</v>
+        <v>0.9801933790577319</v>
       </c>
       <c r="M4">
-        <v>0.9432593841454158</v>
+        <v>0.9213271640617813</v>
       </c>
       <c r="N4">
-        <v>0.9432593841454158</v>
+        <v>0.9213271640617813</v>
       </c>
       <c r="O4">
-        <v>0.9529554385655584</v>
+        <v>0.8888622437673971</v>
       </c>
       <c r="P4">
-        <v>0.9884405022693444</v>
+        <v>0.9652454205065352</v>
       </c>
       <c r="Q4">
-        <v>0.9884405022693442</v>
+        <v>0.9652454205065349</v>
       </c>
       <c r="R4">
-        <v>1.011031061331308</v>
+        <v>0.9872045487289118</v>
       </c>
       <c r="S4">
-        <v>1.011031061331308</v>
+        <v>0.9872045487289118</v>
       </c>
       <c r="T4">
-        <v>0.9766954188003293</v>
+        <v>0.9815910784366491</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -738,58 +768,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.245390163545357</v>
+        <v>1.17415835163086</v>
       </c>
       <c r="D5">
-        <v>0.5340260645028635</v>
+        <v>0.8665992358183766</v>
       </c>
       <c r="E5">
-        <v>0.8115824054734082</v>
+        <v>1.17415835163086</v>
       </c>
       <c r="F5">
-        <v>1.245390163545357</v>
+        <v>0.8309536970369803</v>
       </c>
       <c r="G5">
-        <v>1.001665038562908</v>
+        <v>0.8473102534654092</v>
       </c>
       <c r="H5">
-        <v>0.8871174135132168</v>
+        <v>1.126101177073473</v>
       </c>
       <c r="I5">
-        <v>1.112894864222037</v>
+        <v>0.7623625861810627</v>
       </c>
       <c r="J5">
-        <v>0.5340260645028635</v>
+        <v>0.8665992358183766</v>
       </c>
       <c r="K5">
-        <v>1.245390163545357</v>
+        <v>0.8665992358183766</v>
       </c>
       <c r="L5">
-        <v>0.8115824054734082</v>
+        <v>0.8309536970369803</v>
       </c>
       <c r="M5">
-        <v>0.6728042349881358</v>
+        <v>1.00255602433392</v>
       </c>
       <c r="N5">
-        <v>0.6728042349881358</v>
+        <v>1.00255602433392</v>
       </c>
       <c r="O5">
-        <v>0.7442419611631629</v>
+        <v>1.043737741913771</v>
       </c>
       <c r="P5">
-        <v>0.8636662111738763</v>
+        <v>0.9572370948287391</v>
       </c>
       <c r="Q5">
-        <v>0.8636662111738763</v>
+        <v>0.9572370948287391</v>
       </c>
       <c r="R5">
-        <v>0.9590971992667465</v>
+        <v>0.9345776300761485</v>
       </c>
       <c r="S5">
-        <v>0.9590971992667465</v>
+        <v>0.9345776300761485</v>
       </c>
       <c r="T5">
-        <v>0.9321126583032985</v>
+        <v>0.9345808835343603</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -800,58 +830,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.53919425166635</v>
+        <v>0.6469904157647608</v>
       </c>
       <c r="D6">
-        <v>0.2524654590984607</v>
+        <v>0.4251567583460668</v>
       </c>
       <c r="E6">
-        <v>0.5076075292482196</v>
+        <v>0.6469904157647608</v>
       </c>
       <c r="F6">
-        <v>1.53919425166635</v>
+        <v>0.4475951815016008</v>
       </c>
       <c r="G6">
-        <v>0.7403039790582365</v>
+        <v>0.4302072017506959</v>
       </c>
       <c r="H6">
-        <v>0.908075979937792</v>
+        <v>0.6999399435939343</v>
       </c>
       <c r="I6">
-        <v>1.186726939150263</v>
+        <v>0.4115222865737195</v>
       </c>
       <c r="J6">
-        <v>0.2524654590984607</v>
+        <v>0.4251567583460668</v>
       </c>
       <c r="K6">
-        <v>1.53919425166635</v>
+        <v>0.4251567583460668</v>
       </c>
       <c r="L6">
-        <v>0.5076075292482196</v>
+        <v>0.4475951815016008</v>
       </c>
       <c r="M6">
-        <v>0.3800364941733402</v>
+        <v>0.5472927986331808</v>
       </c>
       <c r="N6">
-        <v>0.3800364941733402</v>
+        <v>0.5472927986331808</v>
       </c>
       <c r="O6">
-        <v>0.5560496560948242</v>
+        <v>0.5981751802867653</v>
       </c>
       <c r="P6">
-        <v>0.7664224133376768</v>
+        <v>0.5065807852041427</v>
       </c>
       <c r="Q6">
-        <v>0.7664224133376768</v>
+        <v>0.5065807852041428</v>
       </c>
       <c r="R6">
-        <v>0.9596153729198451</v>
+        <v>0.4862247784896239</v>
       </c>
       <c r="S6">
-        <v>0.9596153729198451</v>
+        <v>0.4862247784896239</v>
       </c>
       <c r="T6">
-        <v>0.8557290230265536</v>
+        <v>0.5102352979217964</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -862,58 +892,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.003455079705103</v>
+        <v>0.9680482885655528</v>
       </c>
       <c r="D7">
-        <v>0.9992084575312864</v>
+        <v>1.029239228834919</v>
       </c>
       <c r="E7">
-        <v>0.9988543346555971</v>
+        <v>0.9680482885655528</v>
       </c>
       <c r="F7">
-        <v>1.003455079705103</v>
+        <v>0.9592762836639757</v>
       </c>
       <c r="G7">
-        <v>0.9987974937029416</v>
+        <v>1.00248623114111</v>
       </c>
       <c r="H7">
-        <v>0.9990965098792843</v>
+        <v>1.011407699737022</v>
       </c>
       <c r="I7">
-        <v>0.9985097368416292</v>
+        <v>0.9499689691564456</v>
       </c>
       <c r="J7">
-        <v>0.9992084575312864</v>
+        <v>1.029239228834919</v>
       </c>
       <c r="K7">
-        <v>1.003455079705103</v>
+        <v>1.029239228834919</v>
       </c>
       <c r="L7">
-        <v>0.9988543346555971</v>
+        <v>0.9592762836639757</v>
       </c>
       <c r="M7">
-        <v>0.9990313960934418</v>
+        <v>0.9636622861147642</v>
       </c>
       <c r="N7">
-        <v>0.9990313960934418</v>
+        <v>0.9636622861147642</v>
       </c>
       <c r="O7">
-        <v>0.9990531006887227</v>
+        <v>0.9795774239888503</v>
       </c>
       <c r="P7">
-        <v>1.000505957297329</v>
+        <v>0.9855212670214826</v>
       </c>
       <c r="Q7">
-        <v>1.000505957297329</v>
+        <v>0.9855212670214826</v>
       </c>
       <c r="R7">
-        <v>1.001243237899272</v>
+        <v>0.9964507574748418</v>
       </c>
       <c r="S7">
-        <v>1.001243237899272</v>
+        <v>0.9964507574748418</v>
       </c>
       <c r="T7">
-        <v>0.9996536020526401</v>
+        <v>0.9867377835165042</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -924,58 +954,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.016783358394947</v>
+        <v>0.9965996471491063</v>
       </c>
       <c r="D8">
-        <v>0.9983368492440219</v>
+        <v>1.032878453532439</v>
       </c>
       <c r="E8">
-        <v>0.9969831909762563</v>
+        <v>0.9965996471491063</v>
       </c>
       <c r="F8">
-        <v>1.016783358394947</v>
+        <v>0.9977199701763002</v>
       </c>
       <c r="G8">
-        <v>1.005829307328</v>
+        <v>1.000169252366526</v>
       </c>
       <c r="H8">
-        <v>0.9996274053393219</v>
+        <v>0.9989794038845281</v>
       </c>
       <c r="I8">
-        <v>0.9963476550026483</v>
+        <v>1.002300381124696</v>
       </c>
       <c r="J8">
-        <v>0.9983368492440219</v>
+        <v>1.032878453532439</v>
       </c>
       <c r="K8">
-        <v>1.016783358394947</v>
+        <v>1.032878453532439</v>
       </c>
       <c r="L8">
-        <v>0.9969831909762563</v>
+        <v>0.9977199701763002</v>
       </c>
       <c r="M8">
-        <v>0.9976600201101391</v>
+        <v>0.9971598086627033</v>
       </c>
       <c r="N8">
-        <v>0.9976600201101391</v>
+        <v>0.9971598086627033</v>
       </c>
       <c r="O8">
-        <v>0.9983158151865333</v>
+        <v>0.9977663404033116</v>
       </c>
       <c r="P8">
-        <v>1.004034466205075</v>
+        <v>1.009066023619282</v>
       </c>
       <c r="Q8">
-        <v>1.004034466205075</v>
+        <v>1.009066023619282</v>
       </c>
       <c r="R8">
-        <v>1.007221689252543</v>
+        <v>1.015019131097571</v>
       </c>
       <c r="S8">
-        <v>1.007221689252543</v>
+        <v>1.015019131097571</v>
       </c>
       <c r="T8">
-        <v>1.002317961047533</v>
+        <v>1.004774518038933</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -986,58 +1016,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.047408718375914</v>
+        <v>0.9490389450926037</v>
       </c>
       <c r="D9">
-        <v>1.002521294339786</v>
+        <v>1.078802738517202</v>
       </c>
       <c r="E9">
-        <v>0.9997040670494584</v>
+        <v>0.9490389450926037</v>
       </c>
       <c r="F9">
-        <v>1.047408718375914</v>
+        <v>0.9374798231982281</v>
       </c>
       <c r="G9">
-        <v>0.9903562844195496</v>
+        <v>1.003098938229908</v>
       </c>
       <c r="H9">
-        <v>0.9994280159427856</v>
+        <v>0.9723475474058439</v>
       </c>
       <c r="I9">
-        <v>0.9933300795949921</v>
+        <v>0.9194045203581911</v>
       </c>
       <c r="J9">
-        <v>1.002521294339786</v>
+        <v>1.078802738517202</v>
       </c>
       <c r="K9">
-        <v>1.047408718375914</v>
+        <v>1.078802738517202</v>
       </c>
       <c r="L9">
-        <v>0.9997040670494584</v>
+        <v>0.9374798231982281</v>
       </c>
       <c r="M9">
-        <v>1.001112680694622</v>
+        <v>0.9432593841454159</v>
       </c>
       <c r="N9">
-        <v>1.001112680694622</v>
+        <v>0.9432593841454159</v>
       </c>
       <c r="O9">
-        <v>1.000551125777343</v>
+        <v>0.9529554385655586</v>
       </c>
       <c r="P9">
-        <v>1.016544693255053</v>
+        <v>0.9884405022693444</v>
       </c>
       <c r="Q9">
-        <v>1.016544693255053</v>
+        <v>0.9884405022693444</v>
       </c>
       <c r="R9">
-        <v>1.024260699535268</v>
+        <v>1.011031061331309</v>
       </c>
       <c r="S9">
-        <v>1.024260699535268</v>
+        <v>1.011031061331309</v>
       </c>
       <c r="T9">
-        <v>1.005458076620414</v>
+        <v>0.9766954188003293</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1048,58 +1078,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.071051514714167</v>
+        <v>0.6368461945185495</v>
       </c>
       <c r="D10">
-        <v>0.9920446302045643</v>
+        <v>0.4159808162119942</v>
       </c>
       <c r="E10">
-        <v>0.9950890750067719</v>
+        <v>0.6368461945185495</v>
       </c>
       <c r="F10">
-        <v>1.071051514714167</v>
+        <v>0.435546875296194</v>
       </c>
       <c r="G10">
-        <v>0.9929555741231759</v>
+        <v>0.4210633304161487</v>
       </c>
       <c r="H10">
-        <v>0.9917994037693326</v>
+        <v>0.6951057456771779</v>
       </c>
       <c r="I10">
-        <v>0.9954105318570978</v>
+        <v>0.4195813560584621</v>
       </c>
       <c r="J10">
-        <v>0.9920446302045643</v>
+        <v>0.4159808162119942</v>
       </c>
       <c r="K10">
-        <v>1.071051514714167</v>
+        <v>0.4159808162119942</v>
       </c>
       <c r="L10">
-        <v>0.9950890750067719</v>
+        <v>0.435546875296194</v>
       </c>
       <c r="M10">
-        <v>0.9935668526056681</v>
+        <v>0.5361965349073717</v>
       </c>
       <c r="N10">
-        <v>0.9935668526056681</v>
+        <v>0.5361965349073717</v>
       </c>
       <c r="O10">
-        <v>0.9929777029935564</v>
+        <v>0.5891662718306404</v>
       </c>
       <c r="P10">
-        <v>1.019395073308501</v>
+        <v>0.4961246286755792</v>
       </c>
       <c r="Q10">
-        <v>1.019395073308501</v>
+        <v>0.4961246286755792</v>
       </c>
       <c r="R10">
-        <v>1.032309183659917</v>
+        <v>0.476088675559683</v>
       </c>
       <c r="S10">
-        <v>1.032309183659917</v>
+        <v>0.476088675559683</v>
       </c>
       <c r="T10">
-        <v>1.006391788279185</v>
+        <v>0.5040207196964211</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1110,58 +1140,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.250814630877674</v>
+        <v>0.8424562890558256</v>
       </c>
       <c r="D11">
-        <v>1.002621428100762</v>
+        <v>0.9522713714991656</v>
       </c>
       <c r="E11">
-        <v>0.9843042375330985</v>
+        <v>0.8424562890558256</v>
       </c>
       <c r="F11">
-        <v>1.250814630877674</v>
+        <v>1.023663507273559</v>
       </c>
       <c r="G11">
-        <v>0.8355945338166691</v>
+        <v>1.15223366795396</v>
       </c>
       <c r="H11">
-        <v>0.9789800100535136</v>
+        <v>0.8889933401972088</v>
       </c>
       <c r="I11">
-        <v>0.9894431392254505</v>
+        <v>0.540014821358459</v>
       </c>
       <c r="J11">
-        <v>1.002621428100762</v>
+        <v>0.9522713714991656</v>
       </c>
       <c r="K11">
-        <v>1.250814630877674</v>
+        <v>0.9522713714991656</v>
       </c>
       <c r="L11">
-        <v>0.9843042375330985</v>
+        <v>1.023663507273559</v>
       </c>
       <c r="M11">
-        <v>0.9934628328169304</v>
+        <v>0.9330598981646924</v>
       </c>
       <c r="N11">
-        <v>0.9934628328169304</v>
+        <v>0.9330598981646924</v>
       </c>
       <c r="O11">
-        <v>0.9886352252291247</v>
+        <v>0.9183710455088644</v>
       </c>
       <c r="P11">
-        <v>1.079246765503845</v>
+        <v>0.9394637226095167</v>
       </c>
       <c r="Q11">
-        <v>1.079246765503845</v>
+        <v>0.9394637226095167</v>
       </c>
       <c r="R11">
-        <v>1.122138731847302</v>
+        <v>0.942665634831929</v>
       </c>
       <c r="S11">
-        <v>1.122138731847302</v>
+        <v>0.942665634831929</v>
       </c>
       <c r="T11">
-        <v>1.006959663267861</v>
+        <v>0.8999388328896963</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1172,58 +1202,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.947503822981913</v>
+        <v>1.114836431019405</v>
       </c>
       <c r="D12">
-        <v>0.02816246208286076</v>
+        <v>0.8240561307421499</v>
       </c>
       <c r="E12">
-        <v>0.8936585146339779</v>
+        <v>1.114836431019405</v>
       </c>
       <c r="F12">
-        <v>1.947503822981913</v>
+        <v>0.8364736460293786</v>
       </c>
       <c r="G12">
-        <v>0.008384910052905488</v>
+        <v>0.8205179282767457</v>
       </c>
       <c r="H12">
-        <v>1.088287096789949</v>
+        <v>1.112396481594032</v>
       </c>
       <c r="I12">
-        <v>1.444407193392877</v>
+        <v>0.8584153713209163</v>
       </c>
       <c r="J12">
-        <v>0.02816246208286076</v>
+        <v>0.8240561307421499</v>
       </c>
       <c r="K12">
-        <v>1.947503822981913</v>
+        <v>0.8240561307421499</v>
       </c>
       <c r="L12">
-        <v>0.8936585146339779</v>
+        <v>0.8364736460293786</v>
       </c>
       <c r="M12">
-        <v>0.4609104883584194</v>
+        <v>0.9756550385243916</v>
       </c>
       <c r="N12">
-        <v>0.4609104883584194</v>
+        <v>0.9756550385243916</v>
       </c>
       <c r="O12">
-        <v>0.6700360245022626</v>
+        <v>1.021235519547605</v>
       </c>
       <c r="P12">
-        <v>0.9564415998995838</v>
+        <v>0.9251220692636443</v>
       </c>
       <c r="Q12">
-        <v>0.9564415998995838</v>
+        <v>0.9251220692636443</v>
       </c>
       <c r="R12">
-        <v>1.204207155670166</v>
+        <v>0.8998555846332708</v>
       </c>
       <c r="S12">
-        <v>1.204207155670166</v>
+        <v>0.8998555846332708</v>
       </c>
       <c r="T12">
-        <v>0.9017339999890804</v>
+        <v>0.9277826648304378</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1234,58 +1264,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.8299688759072541</v>
+        <v>0.6656284059690936</v>
       </c>
       <c r="D13">
-        <v>1.978384880534224</v>
+        <v>1.129952642115081</v>
       </c>
       <c r="E13">
-        <v>1.050809254152312</v>
+        <v>0.6656284059690936</v>
       </c>
       <c r="F13">
-        <v>0.8299688759072541</v>
+        <v>1.086836853887547</v>
       </c>
       <c r="G13">
-        <v>1.970008178763249</v>
+        <v>1.105910490689742</v>
       </c>
       <c r="H13">
-        <v>1.324511104887579</v>
+        <v>0.8139135582459229</v>
       </c>
       <c r="I13">
-        <v>1.105508623078699</v>
+        <v>1.256879911151591</v>
       </c>
       <c r="J13">
-        <v>1.978384880534224</v>
+        <v>1.129952642115081</v>
       </c>
       <c r="K13">
-        <v>0.8299688759072541</v>
+        <v>1.129952642115081</v>
       </c>
       <c r="L13">
-        <v>1.050809254152312</v>
+        <v>1.086836853887547</v>
       </c>
       <c r="M13">
-        <v>1.514597067343268</v>
+        <v>0.8762326299283205</v>
       </c>
       <c r="N13">
-        <v>1.514597067343268</v>
+        <v>0.8762326299283205</v>
       </c>
       <c r="O13">
-        <v>1.451235079858038</v>
+        <v>0.8554596060341879</v>
       </c>
       <c r="P13">
-        <v>1.28638767019793</v>
+        <v>0.9608059673239073</v>
       </c>
       <c r="Q13">
-        <v>1.28638767019793</v>
+        <v>0.9608059673239073</v>
       </c>
       <c r="R13">
-        <v>1.172282971625261</v>
+        <v>1.003092636021701</v>
       </c>
       <c r="S13">
-        <v>1.172282971625261</v>
+        <v>1.003092636021701</v>
       </c>
       <c r="T13">
-        <v>1.376531819553886</v>
+        <v>1.009853643676496</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1296,58 +1326,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>-0.0004220639548422959</v>
+        <v>0.04955152399999998</v>
       </c>
       <c r="D14">
-        <v>1.139695438201507</v>
+        <v>-0.005045797299999992</v>
       </c>
       <c r="E14">
-        <v>1.453649013070499</v>
+        <v>0.04955152399999998</v>
       </c>
       <c r="F14">
-        <v>-0.0004220639548422959</v>
+        <v>0.00023282782</v>
       </c>
       <c r="G14">
-        <v>1.141189664377113</v>
+        <v>-0.005230677999999993</v>
       </c>
       <c r="H14">
-        <v>1.708839910903891</v>
+        <v>0.25203694</v>
       </c>
       <c r="I14">
-        <v>0.5717459883016169</v>
+        <v>0.0001052211200000001</v>
       </c>
       <c r="J14">
-        <v>1.139695438201507</v>
+        <v>-0.005045797299999992</v>
       </c>
       <c r="K14">
-        <v>-0.0004220639548422959</v>
+        <v>-0.005045797299999992</v>
       </c>
       <c r="L14">
-        <v>1.453649013070499</v>
+        <v>0.00023282782</v>
       </c>
       <c r="M14">
-        <v>1.296672225636003</v>
+        <v>0.02489217590999999</v>
       </c>
       <c r="N14">
-        <v>1.296672225636003</v>
+        <v>0.02489217590999999</v>
       </c>
       <c r="O14">
-        <v>1.434061454058632</v>
+        <v>0.1006070972733333</v>
       </c>
       <c r="P14">
-        <v>0.8643074624390548</v>
+        <v>0.01491285150666666</v>
       </c>
       <c r="Q14">
-        <v>0.8643074624390549</v>
+        <v>0.01491285150666666</v>
       </c>
       <c r="R14">
-        <v>0.6481250808405806</v>
+        <v>0.009923189304999998</v>
       </c>
       <c r="S14">
-        <v>0.6481250808405806</v>
+        <v>0.009923189304999998</v>
       </c>
       <c r="T14">
-        <v>1.002449658483298</v>
+        <v>0.04860833960666666</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1358,58 +1388,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.8100617453708649</v>
+        <v>0.0030969418</v>
       </c>
       <c r="D15">
-        <v>0.7216725738718084</v>
+        <v>30.381976</v>
       </c>
       <c r="E15">
-        <v>0.8021127364917493</v>
+        <v>0.0030969418</v>
       </c>
       <c r="F15">
-        <v>0.8100617453708649</v>
+        <v>-0.0012295708</v>
       </c>
       <c r="G15">
-        <v>0.1338779895585502</v>
+        <v>0.0037430372</v>
       </c>
       <c r="H15">
-        <v>0.1598485097874724</v>
+        <v>0.0025420957</v>
       </c>
       <c r="I15">
-        <v>1.304452449442555</v>
+        <v>-0.0027921709</v>
       </c>
       <c r="J15">
-        <v>0.7216725738718084</v>
+        <v>30.381976</v>
       </c>
       <c r="K15">
-        <v>0.8100617453708649</v>
+        <v>30.381976</v>
       </c>
       <c r="L15">
-        <v>0.8021127364917493</v>
+        <v>-0.0012295708</v>
       </c>
       <c r="M15">
-        <v>0.7618926551817788</v>
+        <v>0.0009336855</v>
       </c>
       <c r="N15">
-        <v>0.7618926551817788</v>
+        <v>0.0009336855</v>
       </c>
       <c r="O15">
-        <v>0.5612112733836767</v>
+        <v>0.001469822233333333</v>
       </c>
       <c r="P15">
-        <v>0.7779490185781409</v>
+        <v>10.12794779033333</v>
       </c>
       <c r="Q15">
-        <v>0.7779490185781409</v>
+        <v>10.12794779033333</v>
       </c>
       <c r="R15">
-        <v>0.7859772002763219</v>
+        <v>15.19145484275</v>
       </c>
       <c r="S15">
-        <v>0.7859772002763219</v>
+        <v>15.19145484275</v>
       </c>
       <c r="T15">
-        <v>0.6553376674205</v>
+        <v>5.0645560555</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1420,58 +1450,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9915557112424481</v>
+        <v>0.0070653521</v>
       </c>
       <c r="D16">
-        <v>0.9998098638866783</v>
+        <v>0.02915984</v>
       </c>
       <c r="E16">
-        <v>0.9997025313974945</v>
+        <v>0.0070653521</v>
       </c>
       <c r="F16">
-        <v>0.9915557112424481</v>
+        <v>0.0031791842</v>
       </c>
       <c r="G16">
-        <v>1.00097293076122</v>
+        <v>0.56934437</v>
       </c>
       <c r="H16">
-        <v>1.001822993843897</v>
+        <v>-0.0027114926</v>
       </c>
       <c r="I16">
-        <v>1.000517729476282</v>
+        <v>0.0016817014</v>
       </c>
       <c r="J16">
-        <v>0.9998098638866783</v>
+        <v>0.02915984</v>
       </c>
       <c r="K16">
-        <v>0.9915557112424481</v>
+        <v>0.02915984</v>
       </c>
       <c r="L16">
-        <v>0.9997025313974945</v>
+        <v>0.0031791842</v>
       </c>
       <c r="M16">
-        <v>0.9997561976420863</v>
+        <v>0.00512226815</v>
       </c>
       <c r="N16">
-        <v>0.9997561976420863</v>
+        <v>0.00512226815</v>
       </c>
       <c r="O16">
-        <v>1.000445129709356</v>
+        <v>0.002511014566666666</v>
       </c>
       <c r="P16">
-        <v>0.9970227021755402</v>
+        <v>0.0131347921</v>
       </c>
       <c r="Q16">
-        <v>0.9970227021755402</v>
+        <v>0.0131347921</v>
       </c>
       <c r="R16">
-        <v>0.9956559544422672</v>
+        <v>0.017141054075</v>
       </c>
       <c r="S16">
-        <v>0.9956559544422672</v>
+        <v>0.017141054075</v>
       </c>
       <c r="T16">
-        <v>0.9990636267680032</v>
+        <v>0.1012864925166667</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1482,58 +1512,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.03287845353244</v>
+        <v>0.0057885843</v>
       </c>
       <c r="D17">
-        <v>0.9965996471491064</v>
+        <v>0.054346391</v>
       </c>
       <c r="E17">
-        <v>0.9977199701763008</v>
+        <v>0.0057885843</v>
       </c>
       <c r="F17">
-        <v>1.03287845353244</v>
+        <v>0.8264006699999998</v>
       </c>
       <c r="G17">
-        <v>1.002300381124696</v>
+        <v>0.29792267</v>
       </c>
       <c r="H17">
-        <v>0.9989794038845284</v>
+        <v>-0.0011213466</v>
       </c>
       <c r="I17">
-        <v>1.000169252366526</v>
+        <v>1.0528841</v>
       </c>
       <c r="J17">
-        <v>0.9965996471491064</v>
+        <v>0.054346391</v>
       </c>
       <c r="K17">
-        <v>1.03287845353244</v>
+        <v>0.054346391</v>
       </c>
       <c r="L17">
-        <v>0.9977199701763008</v>
+        <v>0.8264006699999998</v>
       </c>
       <c r="M17">
-        <v>0.9971598086627036</v>
+        <v>0.4160946271499999</v>
       </c>
       <c r="N17">
-        <v>0.9971598086627036</v>
+        <v>0.4160946271499999</v>
       </c>
       <c r="O17">
-        <v>0.9977663404033118</v>
+        <v>0.2770226358999999</v>
       </c>
       <c r="P17">
-        <v>1.009066023619283</v>
+        <v>0.2955118817666666</v>
       </c>
       <c r="Q17">
-        <v>1.009066023619283</v>
+        <v>0.2955118817666666</v>
       </c>
       <c r="R17">
-        <v>1.015019131097572</v>
+        <v>0.235220509075</v>
       </c>
       <c r="S17">
-        <v>1.015019131097572</v>
+        <v>0.235220509075</v>
       </c>
       <c r="T17">
-        <v>1.004774518038933</v>
+        <v>0.37270351145</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1544,58 +1574,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.142027234367606</v>
+        <v>0.235250213358685</v>
       </c>
       <c r="D18">
-        <v>0.997952981692984</v>
+        <v>2.191279241048219</v>
       </c>
       <c r="E18">
-        <v>0.9548748389948416</v>
+        <v>0.235250213358685</v>
       </c>
       <c r="F18">
-        <v>1.142027234367606</v>
+        <v>0.1847572682520548</v>
       </c>
       <c r="G18">
-        <v>0.9899218139204938</v>
+        <v>0.9055852634273972</v>
       </c>
       <c r="H18">
-        <v>0.9938407630462045</v>
+        <v>0.9221334773438354</v>
       </c>
       <c r="I18">
-        <v>1.033693055258502</v>
+        <v>-0.0004979542895890413</v>
       </c>
       <c r="J18">
-        <v>0.997952981692984</v>
+        <v>2.191279241048219</v>
       </c>
       <c r="K18">
-        <v>1.142027234367606</v>
+        <v>2.191279241048219</v>
       </c>
       <c r="L18">
-        <v>0.9548748389948416</v>
+        <v>0.1847572682520548</v>
       </c>
       <c r="M18">
-        <v>0.9764139103439128</v>
+        <v>0.2100037408053699</v>
       </c>
       <c r="N18">
-        <v>0.9764139103439128</v>
+        <v>0.2100037408053699</v>
       </c>
       <c r="O18">
-        <v>0.9822228612446766</v>
+        <v>0.4473803196515251</v>
       </c>
       <c r="P18">
-        <v>1.031618351685144</v>
+        <v>0.8704289075529862</v>
       </c>
       <c r="Q18">
-        <v>1.031618351685144</v>
+        <v>0.8704289075529862</v>
       </c>
       <c r="R18">
-        <v>1.059220572355759</v>
+        <v>1.200641490926794</v>
       </c>
       <c r="S18">
-        <v>1.059220572355759</v>
+        <v>1.200641490926794</v>
       </c>
       <c r="T18">
-        <v>1.018718447880105</v>
+        <v>0.7397512515234338</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1606,58 +1636,678 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.8045770884521859</v>
+        <v>3.408429246936841</v>
       </c>
       <c r="D19">
-        <v>0.7111392718243243</v>
+        <v>1.705130747645789</v>
       </c>
       <c r="E19">
-        <v>1.006288395017029</v>
+        <v>3.408429246936841</v>
       </c>
       <c r="F19">
-        <v>0.8045770884521859</v>
+        <v>1.705359604148421</v>
       </c>
       <c r="G19">
-        <v>1.163636169032363</v>
+        <v>0.1417804401631579</v>
       </c>
       <c r="H19">
-        <v>1.031067143442572</v>
+        <v>0.03859684174157894</v>
       </c>
       <c r="I19">
-        <v>1.115851747890229</v>
+        <v>5.109571382874736</v>
       </c>
       <c r="J19">
-        <v>0.7111392718243243</v>
+        <v>1.705130747645789</v>
       </c>
       <c r="K19">
-        <v>0.8045770884521859</v>
+        <v>1.705130747645789</v>
       </c>
       <c r="L19">
-        <v>1.006288395017029</v>
+        <v>1.705359604148421</v>
       </c>
       <c r="M19">
-        <v>0.8587138334206766</v>
+        <v>2.556894425542631</v>
       </c>
       <c r="N19">
-        <v>0.8587138334206766</v>
+        <v>2.556894425542631</v>
       </c>
       <c r="O19">
-        <v>0.9161649367613084</v>
+        <v>1.717461897608947</v>
       </c>
       <c r="P19">
-        <v>0.8406682517645131</v>
+        <v>2.272973199577017</v>
       </c>
       <c r="Q19">
-        <v>0.8406682517645131</v>
+        <v>2.272973199577017</v>
       </c>
       <c r="R19">
-        <v>0.8316454609364312</v>
+        <v>2.13101258659421</v>
       </c>
       <c r="S19">
-        <v>0.8316454609364312</v>
+        <v>2.13101258659421</v>
       </c>
       <c r="T19">
-        <v>0.9720933026097839</v>
+        <v>2.018144710585088</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.004291435083157893</v>
+      </c>
+      <c r="D20">
+        <v>2.504330765699474</v>
+      </c>
+      <c r="E20">
+        <v>0.004291435083157893</v>
+      </c>
+      <c r="F20">
+        <v>0.1505663360721052</v>
+      </c>
+      <c r="G20">
+        <v>1.05467414155421</v>
+      </c>
+      <c r="H20">
+        <v>1.446517446318526</v>
+      </c>
+      <c r="I20">
+        <v>0.5312541787536842</v>
+      </c>
+      <c r="J20">
+        <v>2.504330765699474</v>
+      </c>
+      <c r="K20">
+        <v>2.504330765699474</v>
+      </c>
+      <c r="L20">
+        <v>0.1505663360721052</v>
+      </c>
+      <c r="M20">
+        <v>0.07742888557763156</v>
+      </c>
+      <c r="N20">
+        <v>0.07742888557763156</v>
+      </c>
+      <c r="O20">
+        <v>0.5337917391579298</v>
+      </c>
+      <c r="P20">
+        <v>0.8863961789515789</v>
+      </c>
+      <c r="Q20">
+        <v>0.8863961789515789</v>
+      </c>
+      <c r="R20">
+        <v>1.290879825638553</v>
+      </c>
+      <c r="S20">
+        <v>1.290879825638553</v>
+      </c>
+      <c r="T20">
+        <v>0.9486057172468595</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.139695438201505</v>
+      </c>
+      <c r="D21">
+        <v>-0.000422063954842297</v>
+      </c>
+      <c r="E21">
+        <v>1.139695438201505</v>
+      </c>
+      <c r="F21">
+        <v>1.453649013070499</v>
+      </c>
+      <c r="G21">
+        <v>0.5717459883016168</v>
+      </c>
+      <c r="H21">
+        <v>1.70883991090389</v>
+      </c>
+      <c r="I21">
+        <v>1.141189664377114</v>
+      </c>
+      <c r="J21">
+        <v>-0.000422063954842297</v>
+      </c>
+      <c r="K21">
+        <v>-0.000422063954842297</v>
+      </c>
+      <c r="L21">
+        <v>1.453649013070499</v>
+      </c>
+      <c r="M21">
+        <v>1.296672225636002</v>
+      </c>
+      <c r="N21">
+        <v>1.296672225636002</v>
+      </c>
+      <c r="O21">
+        <v>1.434061454058631</v>
+      </c>
+      <c r="P21">
+        <v>0.864307462439054</v>
+      </c>
+      <c r="Q21">
+        <v>0.864307462439054</v>
+      </c>
+      <c r="R21">
+        <v>0.64812508084058</v>
+      </c>
+      <c r="S21">
+        <v>0.64812508084058</v>
+      </c>
+      <c r="T21">
+        <v>1.002449658483297</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.7216725738718084</v>
+      </c>
+      <c r="D22">
+        <v>0.8100617453708652</v>
+      </c>
+      <c r="E22">
+        <v>0.7216725738718084</v>
+      </c>
+      <c r="F22">
+        <v>0.8021127364917493</v>
+      </c>
+      <c r="G22">
+        <v>1.304452449442555</v>
+      </c>
+      <c r="H22">
+        <v>0.1598485097874724</v>
+      </c>
+      <c r="I22">
+        <v>0.1338779895585501</v>
+      </c>
+      <c r="J22">
+        <v>0.8100617453708652</v>
+      </c>
+      <c r="K22">
+        <v>0.8100617453708652</v>
+      </c>
+      <c r="L22">
+        <v>0.8021127364917493</v>
+      </c>
+      <c r="M22">
+        <v>0.7618926551817788</v>
+      </c>
+      <c r="N22">
+        <v>0.7618926551817788</v>
+      </c>
+      <c r="O22">
+        <v>0.5612112733836767</v>
+      </c>
+      <c r="P22">
+        <v>0.7779490185781409</v>
+      </c>
+      <c r="Q22">
+        <v>0.7779490185781409</v>
+      </c>
+      <c r="R22">
+        <v>0.785977200276322</v>
+      </c>
+      <c r="S22">
+        <v>0.785977200276322</v>
+      </c>
+      <c r="T22">
+        <v>0.6553376674205</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.02816246208286063</v>
+      </c>
+      <c r="D23">
+        <v>1.947503822981913</v>
+      </c>
+      <c r="E23">
+        <v>0.02816246208286063</v>
+      </c>
+      <c r="F23">
+        <v>0.8936585146339781</v>
+      </c>
+      <c r="G23">
+        <v>1.444407193392876</v>
+      </c>
+      <c r="H23">
+        <v>1.088287096789949</v>
+      </c>
+      <c r="I23">
+        <v>0.008384910052905486</v>
+      </c>
+      <c r="J23">
+        <v>1.947503822981913</v>
+      </c>
+      <c r="K23">
+        <v>1.947503822981913</v>
+      </c>
+      <c r="L23">
+        <v>0.8936585146339781</v>
+      </c>
+      <c r="M23">
+        <v>0.4609104883584194</v>
+      </c>
+      <c r="N23">
+        <v>0.4609104883584194</v>
+      </c>
+      <c r="O23">
+        <v>0.6700360245022626</v>
+      </c>
+      <c r="P23">
+        <v>0.956441599899584</v>
+      </c>
+      <c r="Q23">
+        <v>0.956441599899584</v>
+      </c>
+      <c r="R23">
+        <v>1.204207155670166</v>
+      </c>
+      <c r="S23">
+        <v>1.204207155670166</v>
+      </c>
+      <c r="T23">
+        <v>0.9017339999890804</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.978384880534225</v>
+      </c>
+      <c r="D24">
+        <v>0.8299688759072553</v>
+      </c>
+      <c r="E24">
+        <v>1.978384880534225</v>
+      </c>
+      <c r="F24">
+        <v>1.050809254152312</v>
+      </c>
+      <c r="G24">
+        <v>1.105508623078699</v>
+      </c>
+      <c r="H24">
+        <v>1.324511104887578</v>
+      </c>
+      <c r="I24">
+        <v>1.97000817876325</v>
+      </c>
+      <c r="J24">
+        <v>0.8299688759072553</v>
+      </c>
+      <c r="K24">
+        <v>0.8299688759072553</v>
+      </c>
+      <c r="L24">
+        <v>1.050809254152312</v>
+      </c>
+      <c r="M24">
+        <v>1.514597067343268</v>
+      </c>
+      <c r="N24">
+        <v>1.514597067343268</v>
+      </c>
+      <c r="O24">
+        <v>1.451235079858038</v>
+      </c>
+      <c r="P24">
+        <v>1.286387670197931</v>
+      </c>
+      <c r="Q24">
+        <v>1.286387670197931</v>
+      </c>
+      <c r="R24">
+        <v>1.172282971625262</v>
+      </c>
+      <c r="S24">
+        <v>1.172282971625262</v>
+      </c>
+      <c r="T24">
+        <v>1.376531819553886</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>7.531923673068421E-05</v>
+      </c>
+      <c r="D25">
+        <v>1.824720370689372</v>
+      </c>
+      <c r="E25">
+        <v>7.531923673068421E-05</v>
+      </c>
+      <c r="F25">
+        <v>1.980624835801773</v>
+      </c>
+      <c r="G25">
+        <v>0.4351863019069599</v>
+      </c>
+      <c r="H25">
+        <v>0.1812719216706417</v>
+      </c>
+      <c r="I25">
+        <v>0.3872119693019184</v>
+      </c>
+      <c r="J25">
+        <v>1.824720370689372</v>
+      </c>
+      <c r="K25">
+        <v>1.824720370689372</v>
+      </c>
+      <c r="L25">
+        <v>1.980624835801773</v>
+      </c>
+      <c r="M25">
+        <v>0.990350077519252</v>
+      </c>
+      <c r="N25">
+        <v>0.990350077519252</v>
+      </c>
+      <c r="O25">
+        <v>0.7206573589030486</v>
+      </c>
+      <c r="P25">
+        <v>1.268473508575958</v>
+      </c>
+      <c r="Q25">
+        <v>1.268473508575958</v>
+      </c>
+      <c r="R25">
+        <v>1.407535224104312</v>
+      </c>
+      <c r="S25">
+        <v>1.407535224104312</v>
+      </c>
+      <c r="T25">
+        <v>0.8015151197678992</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.06399682317877232</v>
+      </c>
+      <c r="D26">
+        <v>0.3705016976410923</v>
+      </c>
+      <c r="E26">
+        <v>0.06399682317877232</v>
+      </c>
+      <c r="F26">
+        <v>0.8748358057067064</v>
+      </c>
+      <c r="G26">
+        <v>1.051517784166006</v>
+      </c>
+      <c r="H26">
+        <v>0.9042881759953366</v>
+      </c>
+      <c r="I26">
+        <v>2.350649568457551</v>
+      </c>
+      <c r="J26">
+        <v>0.3705016976410923</v>
+      </c>
+      <c r="K26">
+        <v>0.3705016976410923</v>
+      </c>
+      <c r="L26">
+        <v>0.8748358057067064</v>
+      </c>
+      <c r="M26">
+        <v>0.4694163144427393</v>
+      </c>
+      <c r="N26">
+        <v>0.4694163144427393</v>
+      </c>
+      <c r="O26">
+        <v>0.6143736016269384</v>
+      </c>
+      <c r="P26">
+        <v>0.436444775508857</v>
+      </c>
+      <c r="Q26">
+        <v>0.436444775508857</v>
+      </c>
+      <c r="R26">
+        <v>0.4199590060419158</v>
+      </c>
+      <c r="S26">
+        <v>0.4199590060419158</v>
+      </c>
+      <c r="T26">
+        <v>0.9359649758575773</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.8743220210203884</v>
+      </c>
+      <c r="D27">
+        <v>1.413990432140681</v>
+      </c>
+      <c r="E27">
+        <v>0.8743220210203884</v>
+      </c>
+      <c r="F27">
+        <v>0.06410497021221635</v>
+      </c>
+      <c r="G27">
+        <v>0.8389915028949875</v>
+      </c>
+      <c r="H27">
+        <v>0.2416151416335802</v>
+      </c>
+      <c r="I27">
+        <v>3.088210952728831</v>
+      </c>
+      <c r="J27">
+        <v>1.413990432140681</v>
+      </c>
+      <c r="K27">
+        <v>1.413990432140681</v>
+      </c>
+      <c r="L27">
+        <v>0.06410497021221635</v>
+      </c>
+      <c r="M27">
+        <v>0.4692134956163024</v>
+      </c>
+      <c r="N27">
+        <v>0.4692134956163024</v>
+      </c>
+      <c r="O27">
+        <v>0.3933473776220617</v>
+      </c>
+      <c r="P27">
+        <v>0.7841391411244284</v>
+      </c>
+      <c r="Q27">
+        <v>0.7841391411244284</v>
+      </c>
+      <c r="R27">
+        <v>0.9416019638784915</v>
+      </c>
+      <c r="S27">
+        <v>0.9416019638784915</v>
+      </c>
+      <c r="T27">
+        <v>1.086872503438447</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.4866302396892118</v>
+      </c>
+      <c r="D28">
+        <v>0.2830729848835137</v>
+      </c>
+      <c r="E28">
+        <v>0.4866302396892118</v>
+      </c>
+      <c r="F28">
+        <v>0.8620429851447388</v>
+      </c>
+      <c r="G28">
+        <v>1.320202228004525</v>
+      </c>
+      <c r="H28">
+        <v>1.115298371174898</v>
+      </c>
+      <c r="I28">
+        <v>0.1743138411369667</v>
+      </c>
+      <c r="J28">
+        <v>0.2830729848835137</v>
+      </c>
+      <c r="K28">
+        <v>0.2830729848835137</v>
+      </c>
+      <c r="L28">
+        <v>0.8620429851447388</v>
+      </c>
+      <c r="M28">
+        <v>0.6743366124169753</v>
+      </c>
+      <c r="N28">
+        <v>0.6743366124169753</v>
+      </c>
+      <c r="O28">
+        <v>0.821323865336283</v>
+      </c>
+      <c r="P28">
+        <v>0.5439154032391548</v>
+      </c>
+      <c r="Q28">
+        <v>0.5439154032391548</v>
+      </c>
+      <c r="R28">
+        <v>0.4787047986502445</v>
+      </c>
+      <c r="S28">
+        <v>0.4787047986502445</v>
+      </c>
+      <c r="T28">
+        <v>0.7069267750056424</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.000651416482881435</v>
+      </c>
+      <c r="D29">
+        <v>0.007560328696085989</v>
+      </c>
+      <c r="E29">
+        <v>0.000651416482881435</v>
+      </c>
+      <c r="F29">
+        <v>1.386794834186211</v>
+      </c>
+      <c r="G29">
+        <v>1.379426734386856</v>
+      </c>
+      <c r="H29">
+        <v>1.573025304422839</v>
+      </c>
+      <c r="I29">
+        <v>0.05450384123075686</v>
+      </c>
+      <c r="J29">
+        <v>0.007560328696085989</v>
+      </c>
+      <c r="K29">
+        <v>0.007560328696085989</v>
+      </c>
+      <c r="L29">
+        <v>1.386794834186211</v>
+      </c>
+      <c r="M29">
+        <v>0.6937231253345461</v>
+      </c>
+      <c r="N29">
+        <v>0.6937231253345461</v>
+      </c>
+      <c r="O29">
+        <v>0.9868238516973104</v>
+      </c>
+      <c r="P29">
+        <v>0.465002193121726</v>
+      </c>
+      <c r="Q29">
+        <v>0.465002193121726</v>
+      </c>
+      <c r="R29">
+        <v>0.350641727015316</v>
+      </c>
+      <c r="S29">
+        <v>0.350641727015316</v>
+      </c>
+      <c r="T29">
+        <v>0.7336604099009384</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/Alpha1F-HW05.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha1F-HW05.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -509,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,58 +588,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -706,58 +712,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.8624609490658306</v>
+        <v>1.248008043140437</v>
       </c>
       <c r="D4">
-        <v>1.053081933396043</v>
+        <v>0.7988984622773833</v>
       </c>
       <c r="E4">
-        <v>0.8624609490658306</v>
+        <v>1.248008043140437</v>
       </c>
       <c r="F4">
-        <v>0.9801933790577319</v>
+        <v>0.88157366811476</v>
       </c>
       <c r="G4">
-        <v>1.065776422598363</v>
+        <v>0.8692626703186629</v>
       </c>
       <c r="H4">
-        <v>0.8239324031786289</v>
+        <v>1.15440235417033</v>
       </c>
       <c r="I4">
-        <v>1.104101383323297</v>
+        <v>0.8070202890927248</v>
       </c>
       <c r="J4">
-        <v>1.053081933396043</v>
+        <v>0.7988984622773833</v>
       </c>
       <c r="K4">
-        <v>1.053081933396043</v>
+        <v>0.7988984622773833</v>
       </c>
       <c r="L4">
-        <v>0.9801933790577319</v>
+        <v>0.88157366811476</v>
       </c>
       <c r="M4">
-        <v>0.9213271640617813</v>
+        <v>1.064790855627598</v>
       </c>
       <c r="N4">
-        <v>0.9213271640617813</v>
+        <v>1.064790855627598</v>
       </c>
       <c r="O4">
-        <v>0.8888622437673971</v>
+        <v>1.094661355141842</v>
       </c>
       <c r="P4">
-        <v>0.9652454205065352</v>
+        <v>0.9761600578441932</v>
       </c>
       <c r="Q4">
-        <v>0.9652454205065349</v>
+        <v>0.9761600578441932</v>
       </c>
       <c r="R4">
-        <v>0.9872045487289118</v>
+        <v>0.9318446589524908</v>
       </c>
       <c r="S4">
-        <v>0.9872045487289118</v>
+        <v>0.9318446589524908</v>
       </c>
       <c r="T4">
-        <v>0.9815910784366491</v>
+        <v>0.9598609145190494</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -768,58 +774,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.17415835163086</v>
+        <v>0.001049769859248106</v>
       </c>
       <c r="D5">
-        <v>0.8665992358183766</v>
+        <v>2.017753099156763</v>
       </c>
       <c r="E5">
-        <v>1.17415835163086</v>
+        <v>0.001049769859248106</v>
       </c>
       <c r="F5">
-        <v>0.8309536970369803</v>
+        <v>0.166633664373018</v>
       </c>
       <c r="G5">
-        <v>0.8473102534654092</v>
+        <v>1.165686704002496</v>
       </c>
       <c r="H5">
-        <v>1.126101177073473</v>
+        <v>1.515882241277805</v>
       </c>
       <c r="I5">
-        <v>0.7623625861810627</v>
+        <v>0.5877644483483286</v>
       </c>
       <c r="J5">
-        <v>0.8665992358183766</v>
+        <v>2.017753099156763</v>
       </c>
       <c r="K5">
-        <v>0.8665992358183766</v>
+        <v>2.017753099156763</v>
       </c>
       <c r="L5">
-        <v>0.8309536970369803</v>
+        <v>0.166633664373018</v>
       </c>
       <c r="M5">
-        <v>1.00255602433392</v>
+        <v>0.08384171711613304</v>
       </c>
       <c r="N5">
-        <v>1.00255602433392</v>
+        <v>0.08384171711613304</v>
       </c>
       <c r="O5">
-        <v>1.043737741913771</v>
+        <v>0.561188558503357</v>
       </c>
       <c r="P5">
-        <v>0.9572370948287391</v>
+        <v>0.7284788444630097</v>
       </c>
       <c r="Q5">
-        <v>0.9572370948287391</v>
+        <v>0.7284788444630097</v>
       </c>
       <c r="R5">
-        <v>0.9345776300761485</v>
+        <v>1.050797408136448</v>
       </c>
       <c r="S5">
-        <v>0.9345776300761485</v>
+        <v>1.050797408136448</v>
       </c>
       <c r="T5">
-        <v>0.9345808835343603</v>
+        <v>0.9091283211696098</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -830,58 +836,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.6469904157647608</v>
+        <v>0.8624609490658306</v>
       </c>
       <c r="D6">
-        <v>0.4251567583460668</v>
+        <v>1.053081933396043</v>
       </c>
       <c r="E6">
-        <v>0.6469904157647608</v>
+        <v>0.8624609490658306</v>
       </c>
       <c r="F6">
-        <v>0.4475951815016008</v>
+        <v>0.9801933790577319</v>
       </c>
       <c r="G6">
-        <v>0.4302072017506959</v>
+        <v>1.065776422598363</v>
       </c>
       <c r="H6">
-        <v>0.6999399435939343</v>
+        <v>0.8239324031786289</v>
       </c>
       <c r="I6">
-        <v>0.4115222865737195</v>
+        <v>1.104101383323297</v>
       </c>
       <c r="J6">
-        <v>0.4251567583460668</v>
+        <v>1.053081933396043</v>
       </c>
       <c r="K6">
-        <v>0.4251567583460668</v>
+        <v>1.053081933396043</v>
       </c>
       <c r="L6">
-        <v>0.4475951815016008</v>
+        <v>0.9801933790577319</v>
       </c>
       <c r="M6">
-        <v>0.5472927986331808</v>
+        <v>0.9213271640617813</v>
       </c>
       <c r="N6">
-        <v>0.5472927986331808</v>
+        <v>0.9213271640617813</v>
       </c>
       <c r="O6">
-        <v>0.5981751802867653</v>
+        <v>0.8888622437673971</v>
       </c>
       <c r="P6">
-        <v>0.5065807852041427</v>
+        <v>0.9652454205065352</v>
       </c>
       <c r="Q6">
-        <v>0.5065807852041428</v>
+        <v>0.9652454205065349</v>
       </c>
       <c r="R6">
-        <v>0.4862247784896239</v>
+        <v>0.9872045487289118</v>
       </c>
       <c r="S6">
-        <v>0.4862247784896239</v>
+        <v>0.9872045487289118</v>
       </c>
       <c r="T6">
-        <v>0.5102352979217964</v>
+        <v>0.9815910784366491</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -892,58 +898,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9680482885655528</v>
+        <v>1.17415835163086</v>
       </c>
       <c r="D7">
-        <v>1.029239228834919</v>
+        <v>0.8665992358183766</v>
       </c>
       <c r="E7">
-        <v>0.9680482885655528</v>
+        <v>1.17415835163086</v>
       </c>
       <c r="F7">
-        <v>0.9592762836639757</v>
+        <v>0.8309536970369803</v>
       </c>
       <c r="G7">
-        <v>1.00248623114111</v>
+        <v>0.8473102534654092</v>
       </c>
       <c r="H7">
-        <v>1.011407699737022</v>
+        <v>1.126101177073473</v>
       </c>
       <c r="I7">
-        <v>0.9499689691564456</v>
+        <v>0.7623625861810627</v>
       </c>
       <c r="J7">
-        <v>1.029239228834919</v>
+        <v>0.8665992358183766</v>
       </c>
       <c r="K7">
-        <v>1.029239228834919</v>
+        <v>0.8665992358183766</v>
       </c>
       <c r="L7">
-        <v>0.9592762836639757</v>
+        <v>0.8309536970369803</v>
       </c>
       <c r="M7">
-        <v>0.9636622861147642</v>
+        <v>1.00255602433392</v>
       </c>
       <c r="N7">
-        <v>0.9636622861147642</v>
+        <v>1.00255602433392</v>
       </c>
       <c r="O7">
-        <v>0.9795774239888503</v>
+        <v>1.043737741913771</v>
       </c>
       <c r="P7">
-        <v>0.9855212670214826</v>
+        <v>0.9572370948287391</v>
       </c>
       <c r="Q7">
-        <v>0.9855212670214826</v>
+        <v>0.9572370948287391</v>
       </c>
       <c r="R7">
-        <v>0.9964507574748418</v>
+        <v>0.9345776300761485</v>
       </c>
       <c r="S7">
-        <v>0.9964507574748418</v>
+        <v>0.9345776300761485</v>
       </c>
       <c r="T7">
-        <v>0.9867377835165042</v>
+        <v>0.9345808835343603</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -954,58 +960,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9965996471491063</v>
+        <v>0.6469904157647608</v>
       </c>
       <c r="D8">
-        <v>1.032878453532439</v>
+        <v>0.4251567583460668</v>
       </c>
       <c r="E8">
-        <v>0.9965996471491063</v>
+        <v>0.6469904157647608</v>
       </c>
       <c r="F8">
-        <v>0.9977199701763002</v>
+        <v>0.4475951815016008</v>
       </c>
       <c r="G8">
-        <v>1.000169252366526</v>
+        <v>0.4302072017506959</v>
       </c>
       <c r="H8">
-        <v>0.9989794038845281</v>
+        <v>0.6999399435939343</v>
       </c>
       <c r="I8">
-        <v>1.002300381124696</v>
+        <v>0.4115222865737195</v>
       </c>
       <c r="J8">
-        <v>1.032878453532439</v>
+        <v>0.4251567583460668</v>
       </c>
       <c r="K8">
-        <v>1.032878453532439</v>
+        <v>0.4251567583460668</v>
       </c>
       <c r="L8">
-        <v>0.9977199701763002</v>
+        <v>0.4475951815016008</v>
       </c>
       <c r="M8">
-        <v>0.9971598086627033</v>
+        <v>0.5472927986331808</v>
       </c>
       <c r="N8">
-        <v>0.9971598086627033</v>
+        <v>0.5472927986331808</v>
       </c>
       <c r="O8">
-        <v>0.9977663404033116</v>
+        <v>0.5981751802867653</v>
       </c>
       <c r="P8">
-        <v>1.009066023619282</v>
+        <v>0.5065807852041427</v>
       </c>
       <c r="Q8">
-        <v>1.009066023619282</v>
+        <v>0.5065807852041428</v>
       </c>
       <c r="R8">
-        <v>1.015019131097571</v>
+        <v>0.4862247784896239</v>
       </c>
       <c r="S8">
-        <v>1.015019131097571</v>
+        <v>0.4862247784896239</v>
       </c>
       <c r="T8">
-        <v>1.004774518038933</v>
+        <v>0.5102352979217964</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1016,58 +1022,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9490389450926037</v>
+        <v>0.9680482885655528</v>
       </c>
       <c r="D9">
-        <v>1.078802738517202</v>
+        <v>1.029239228834919</v>
       </c>
       <c r="E9">
-        <v>0.9490389450926037</v>
+        <v>0.9680482885655528</v>
       </c>
       <c r="F9">
-        <v>0.9374798231982281</v>
+        <v>0.9592762836639757</v>
       </c>
       <c r="G9">
-        <v>1.003098938229908</v>
+        <v>1.00248623114111</v>
       </c>
       <c r="H9">
-        <v>0.9723475474058439</v>
+        <v>1.011407699737022</v>
       </c>
       <c r="I9">
-        <v>0.9194045203581911</v>
+        <v>0.9499689691564456</v>
       </c>
       <c r="J9">
-        <v>1.078802738517202</v>
+        <v>1.029239228834919</v>
       </c>
       <c r="K9">
-        <v>1.078802738517202</v>
+        <v>1.029239228834919</v>
       </c>
       <c r="L9">
-        <v>0.9374798231982281</v>
+        <v>0.9592762836639757</v>
       </c>
       <c r="M9">
-        <v>0.9432593841454159</v>
+        <v>0.9636622861147642</v>
       </c>
       <c r="N9">
-        <v>0.9432593841454159</v>
+        <v>0.9636622861147642</v>
       </c>
       <c r="O9">
-        <v>0.9529554385655586</v>
+        <v>0.9795774239888503</v>
       </c>
       <c r="P9">
-        <v>0.9884405022693444</v>
+        <v>0.9855212670214826</v>
       </c>
       <c r="Q9">
-        <v>0.9884405022693444</v>
+        <v>0.9855212670214826</v>
       </c>
       <c r="R9">
-        <v>1.011031061331309</v>
+        <v>0.9964507574748418</v>
       </c>
       <c r="S9">
-        <v>1.011031061331309</v>
+        <v>0.9964507574748418</v>
       </c>
       <c r="T9">
-        <v>0.9766954188003293</v>
+        <v>0.9867377835165042</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1078,58 +1084,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.6368461945185495</v>
+        <v>0.9965996471491063</v>
       </c>
       <c r="D10">
-        <v>0.4159808162119942</v>
+        <v>1.032878453532439</v>
       </c>
       <c r="E10">
-        <v>0.6368461945185495</v>
+        <v>0.9965996471491063</v>
       </c>
       <c r="F10">
-        <v>0.435546875296194</v>
+        <v>0.9977199701763002</v>
       </c>
       <c r="G10">
-        <v>0.4210633304161487</v>
+        <v>1.000169252366526</v>
       </c>
       <c r="H10">
-        <v>0.6951057456771779</v>
+        <v>0.9989794038845281</v>
       </c>
       <c r="I10">
-        <v>0.4195813560584621</v>
+        <v>1.002300381124696</v>
       </c>
       <c r="J10">
-        <v>0.4159808162119942</v>
+        <v>1.032878453532439</v>
       </c>
       <c r="K10">
-        <v>0.4159808162119942</v>
+        <v>1.032878453532439</v>
       </c>
       <c r="L10">
-        <v>0.435546875296194</v>
+        <v>0.9977199701763002</v>
       </c>
       <c r="M10">
-        <v>0.5361965349073717</v>
+        <v>0.9971598086627033</v>
       </c>
       <c r="N10">
-        <v>0.5361965349073717</v>
+        <v>0.9971598086627033</v>
       </c>
       <c r="O10">
-        <v>0.5891662718306404</v>
+        <v>0.9977663404033116</v>
       </c>
       <c r="P10">
-        <v>0.4961246286755792</v>
+        <v>1.009066023619282</v>
       </c>
       <c r="Q10">
-        <v>0.4961246286755792</v>
+        <v>1.009066023619282</v>
       </c>
       <c r="R10">
-        <v>0.476088675559683</v>
+        <v>1.015019131097571</v>
       </c>
       <c r="S10">
-        <v>0.476088675559683</v>
+        <v>1.015019131097571</v>
       </c>
       <c r="T10">
-        <v>0.5040207196964211</v>
+        <v>1.004774518038933</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1140,58 +1146,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.8424562890558256</v>
+        <v>0.9490389450926037</v>
       </c>
       <c r="D11">
-        <v>0.9522713714991656</v>
+        <v>1.078802738517202</v>
       </c>
       <c r="E11">
-        <v>0.8424562890558256</v>
+        <v>0.9490389450926037</v>
       </c>
       <c r="F11">
-        <v>1.023663507273559</v>
+        <v>0.9374798231982281</v>
       </c>
       <c r="G11">
-        <v>1.15223366795396</v>
+        <v>1.003098938229908</v>
       </c>
       <c r="H11">
-        <v>0.8889933401972088</v>
+        <v>0.9723475474058439</v>
       </c>
       <c r="I11">
-        <v>0.540014821358459</v>
+        <v>0.9194045203581911</v>
       </c>
       <c r="J11">
-        <v>0.9522713714991656</v>
+        <v>1.078802738517202</v>
       </c>
       <c r="K11">
-        <v>0.9522713714991656</v>
+        <v>1.078802738517202</v>
       </c>
       <c r="L11">
-        <v>1.023663507273559</v>
+        <v>0.9374798231982281</v>
       </c>
       <c r="M11">
-        <v>0.9330598981646924</v>
+        <v>0.9432593841454159</v>
       </c>
       <c r="N11">
-        <v>0.9330598981646924</v>
+        <v>0.9432593841454159</v>
       </c>
       <c r="O11">
-        <v>0.9183710455088644</v>
+        <v>0.9529554385655586</v>
       </c>
       <c r="P11">
-        <v>0.9394637226095167</v>
+        <v>0.9884405022693444</v>
       </c>
       <c r="Q11">
-        <v>0.9394637226095167</v>
+        <v>0.9884405022693444</v>
       </c>
       <c r="R11">
-        <v>0.942665634831929</v>
+        <v>1.011031061331309</v>
       </c>
       <c r="S11">
-        <v>0.942665634831929</v>
+        <v>1.011031061331309</v>
       </c>
       <c r="T11">
-        <v>0.8999388328896963</v>
+        <v>0.9766954188003293</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1202,58 +1208,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.114836431019405</v>
+        <v>0.6368461945185495</v>
       </c>
       <c r="D12">
-        <v>0.8240561307421499</v>
+        <v>0.4159808162119942</v>
       </c>
       <c r="E12">
-        <v>1.114836431019405</v>
+        <v>0.6368461945185495</v>
       </c>
       <c r="F12">
-        <v>0.8364736460293786</v>
+        <v>0.435546875296194</v>
       </c>
       <c r="G12">
-        <v>0.8205179282767457</v>
+        <v>0.4210633304161487</v>
       </c>
       <c r="H12">
-        <v>1.112396481594032</v>
+        <v>0.6951057456771779</v>
       </c>
       <c r="I12">
-        <v>0.8584153713209163</v>
+        <v>0.4195813560584621</v>
       </c>
       <c r="J12">
-        <v>0.8240561307421499</v>
+        <v>0.4159808162119942</v>
       </c>
       <c r="K12">
-        <v>0.8240561307421499</v>
+        <v>0.4159808162119942</v>
       </c>
       <c r="L12">
-        <v>0.8364736460293786</v>
+        <v>0.435546875296194</v>
       </c>
       <c r="M12">
-        <v>0.9756550385243916</v>
+        <v>0.5361965349073717</v>
       </c>
       <c r="N12">
-        <v>0.9756550385243916</v>
+        <v>0.5361965349073717</v>
       </c>
       <c r="O12">
-        <v>1.021235519547605</v>
+        <v>0.5891662718306404</v>
       </c>
       <c r="P12">
-        <v>0.9251220692636443</v>
+        <v>0.4961246286755792</v>
       </c>
       <c r="Q12">
-        <v>0.9251220692636443</v>
+        <v>0.4961246286755792</v>
       </c>
       <c r="R12">
-        <v>0.8998555846332708</v>
+        <v>0.476088675559683</v>
       </c>
       <c r="S12">
-        <v>0.8998555846332708</v>
+        <v>0.476088675559683</v>
       </c>
       <c r="T12">
-        <v>0.9277826648304378</v>
+        <v>0.5040207196964211</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1264,58 +1270,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.6656284059690936</v>
+        <v>0.8424562890558256</v>
       </c>
       <c r="D13">
-        <v>1.129952642115081</v>
+        <v>0.9522713714991656</v>
       </c>
       <c r="E13">
-        <v>0.6656284059690936</v>
+        <v>0.8424562890558256</v>
       </c>
       <c r="F13">
-        <v>1.086836853887547</v>
+        <v>1.023663507273559</v>
       </c>
       <c r="G13">
-        <v>1.105910490689742</v>
+        <v>1.15223366795396</v>
       </c>
       <c r="H13">
-        <v>0.8139135582459229</v>
+        <v>0.8889933401972088</v>
       </c>
       <c r="I13">
-        <v>1.256879911151591</v>
+        <v>0.540014821358459</v>
       </c>
       <c r="J13">
-        <v>1.129952642115081</v>
+        <v>0.9522713714991656</v>
       </c>
       <c r="K13">
-        <v>1.129952642115081</v>
+        <v>0.9522713714991656</v>
       </c>
       <c r="L13">
-        <v>1.086836853887547</v>
+        <v>1.023663507273559</v>
       </c>
       <c r="M13">
-        <v>0.8762326299283205</v>
+        <v>0.9330598981646924</v>
       </c>
       <c r="N13">
-        <v>0.8762326299283205</v>
+        <v>0.9330598981646924</v>
       </c>
       <c r="O13">
-        <v>0.8554596060341879</v>
+        <v>0.9183710455088644</v>
       </c>
       <c r="P13">
-        <v>0.9608059673239073</v>
+        <v>0.9394637226095167</v>
       </c>
       <c r="Q13">
-        <v>0.9608059673239073</v>
+        <v>0.9394637226095167</v>
       </c>
       <c r="R13">
-        <v>1.003092636021701</v>
+        <v>0.942665634831929</v>
       </c>
       <c r="S13">
-        <v>1.003092636021701</v>
+        <v>0.942665634831929</v>
       </c>
       <c r="T13">
-        <v>1.009853643676496</v>
+        <v>0.8999388328896963</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1326,58 +1332,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.04955152399999998</v>
+        <v>1.114836431019405</v>
       </c>
       <c r="D14">
-        <v>-0.005045797299999992</v>
+        <v>0.8240561307421499</v>
       </c>
       <c r="E14">
-        <v>0.04955152399999998</v>
+        <v>1.114836431019405</v>
       </c>
       <c r="F14">
-        <v>0.00023282782</v>
+        <v>0.8364736460293786</v>
       </c>
       <c r="G14">
-        <v>-0.005230677999999993</v>
+        <v>0.8205179282767457</v>
       </c>
       <c r="H14">
-        <v>0.25203694</v>
+        <v>1.112396481594032</v>
       </c>
       <c r="I14">
-        <v>0.0001052211200000001</v>
+        <v>0.8584153713209163</v>
       </c>
       <c r="J14">
-        <v>-0.005045797299999992</v>
+        <v>0.8240561307421499</v>
       </c>
       <c r="K14">
-        <v>-0.005045797299999992</v>
+        <v>0.8240561307421499</v>
       </c>
       <c r="L14">
-        <v>0.00023282782</v>
+        <v>0.8364736460293786</v>
       </c>
       <c r="M14">
-        <v>0.02489217590999999</v>
+        <v>0.9756550385243916</v>
       </c>
       <c r="N14">
-        <v>0.02489217590999999</v>
+        <v>0.9756550385243916</v>
       </c>
       <c r="O14">
-        <v>0.1006070972733333</v>
+        <v>1.021235519547605</v>
       </c>
       <c r="P14">
-        <v>0.01491285150666666</v>
+        <v>0.9251220692636443</v>
       </c>
       <c r="Q14">
-        <v>0.01491285150666666</v>
+        <v>0.9251220692636443</v>
       </c>
       <c r="R14">
-        <v>0.009923189304999998</v>
+        <v>0.8998555846332708</v>
       </c>
       <c r="S14">
-        <v>0.009923189304999998</v>
+        <v>0.8998555846332708</v>
       </c>
       <c r="T14">
-        <v>0.04860833960666666</v>
+        <v>0.9277826648304378</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1388,58 +1394,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.0030969418</v>
+        <v>0.6656284059690936</v>
       </c>
       <c r="D15">
-        <v>30.381976</v>
+        <v>1.129952642115081</v>
       </c>
       <c r="E15">
-        <v>0.0030969418</v>
+        <v>0.6656284059690936</v>
       </c>
       <c r="F15">
-        <v>-0.0012295708</v>
+        <v>1.086836853887547</v>
       </c>
       <c r="G15">
-        <v>0.0037430372</v>
+        <v>1.105910490689742</v>
       </c>
       <c r="H15">
-        <v>0.0025420957</v>
+        <v>0.8139135582459229</v>
       </c>
       <c r="I15">
-        <v>-0.0027921709</v>
+        <v>1.256879911151591</v>
       </c>
       <c r="J15">
-        <v>30.381976</v>
+        <v>1.129952642115081</v>
       </c>
       <c r="K15">
-        <v>30.381976</v>
+        <v>1.129952642115081</v>
       </c>
       <c r="L15">
-        <v>-0.0012295708</v>
+        <v>1.086836853887547</v>
       </c>
       <c r="M15">
-        <v>0.0009336855</v>
+        <v>0.8762326299283205</v>
       </c>
       <c r="N15">
-        <v>0.0009336855</v>
+        <v>0.8762326299283205</v>
       </c>
       <c r="O15">
-        <v>0.001469822233333333</v>
+        <v>0.8554596060341879</v>
       </c>
       <c r="P15">
-        <v>10.12794779033333</v>
+        <v>0.9608059673239073</v>
       </c>
       <c r="Q15">
-        <v>10.12794779033333</v>
+        <v>0.9608059673239073</v>
       </c>
       <c r="R15">
-        <v>15.19145484275</v>
+        <v>1.003092636021701</v>
       </c>
       <c r="S15">
-        <v>15.19145484275</v>
+        <v>1.003092636021701</v>
       </c>
       <c r="T15">
-        <v>5.0645560555</v>
+        <v>1.009853643676496</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1450,58 +1456,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.0070653521</v>
+        <v>0.04955152399999998</v>
       </c>
       <c r="D16">
-        <v>0.02915984</v>
+        <v>-0.005045797299999992</v>
       </c>
       <c r="E16">
-        <v>0.0070653521</v>
+        <v>0.04955152399999998</v>
       </c>
       <c r="F16">
-        <v>0.0031791842</v>
+        <v>0.00023282782</v>
       </c>
       <c r="G16">
-        <v>0.56934437</v>
+        <v>-0.005230677999999993</v>
       </c>
       <c r="H16">
-        <v>-0.0027114926</v>
+        <v>0.25203694</v>
       </c>
       <c r="I16">
-        <v>0.0016817014</v>
+        <v>0.0001052211200000001</v>
       </c>
       <c r="J16">
-        <v>0.02915984</v>
+        <v>-0.005045797299999992</v>
       </c>
       <c r="K16">
-        <v>0.02915984</v>
+        <v>-0.005045797299999992</v>
       </c>
       <c r="L16">
-        <v>0.0031791842</v>
+        <v>0.00023282782</v>
       </c>
       <c r="M16">
-        <v>0.00512226815</v>
+        <v>0.02489217590999999</v>
       </c>
       <c r="N16">
-        <v>0.00512226815</v>
+        <v>0.02489217590999999</v>
       </c>
       <c r="O16">
-        <v>0.002511014566666666</v>
+        <v>0.1006070972733333</v>
       </c>
       <c r="P16">
-        <v>0.0131347921</v>
+        <v>0.01491285150666666</v>
       </c>
       <c r="Q16">
-        <v>0.0131347921</v>
+        <v>0.01491285150666666</v>
       </c>
       <c r="R16">
-        <v>0.017141054075</v>
+        <v>0.009923189304999998</v>
       </c>
       <c r="S16">
-        <v>0.017141054075</v>
+        <v>0.009923189304999998</v>
       </c>
       <c r="T16">
-        <v>0.1012864925166667</v>
+        <v>0.04860833960666666</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1512,58 +1518,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.0057885843</v>
+        <v>0.0030969418</v>
       </c>
       <c r="D17">
-        <v>0.054346391</v>
+        <v>30.381976</v>
       </c>
       <c r="E17">
-        <v>0.0057885843</v>
+        <v>0.0030969418</v>
       </c>
       <c r="F17">
-        <v>0.8264006699999998</v>
+        <v>-0.0012295708</v>
       </c>
       <c r="G17">
-        <v>0.29792267</v>
+        <v>0.0037430372</v>
       </c>
       <c r="H17">
-        <v>-0.0011213466</v>
+        <v>0.0025420957</v>
       </c>
       <c r="I17">
-        <v>1.0528841</v>
+        <v>-0.0027921709</v>
       </c>
       <c r="J17">
-        <v>0.054346391</v>
+        <v>30.381976</v>
       </c>
       <c r="K17">
-        <v>0.054346391</v>
+        <v>30.381976</v>
       </c>
       <c r="L17">
-        <v>0.8264006699999998</v>
+        <v>-0.0012295708</v>
       </c>
       <c r="M17">
-        <v>0.4160946271499999</v>
+        <v>0.0009336855</v>
       </c>
       <c r="N17">
-        <v>0.4160946271499999</v>
+        <v>0.0009336855</v>
       </c>
       <c r="O17">
-        <v>0.2770226358999999</v>
+        <v>0.001469822233333333</v>
       </c>
       <c r="P17">
-        <v>0.2955118817666666</v>
+        <v>10.12794779033333</v>
       </c>
       <c r="Q17">
-        <v>0.2955118817666666</v>
+        <v>10.12794779033333</v>
       </c>
       <c r="R17">
-        <v>0.235220509075</v>
+        <v>15.19145484275</v>
       </c>
       <c r="S17">
-        <v>0.235220509075</v>
+        <v>15.19145484275</v>
       </c>
       <c r="T17">
-        <v>0.37270351145</v>
+        <v>5.0645560555</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1574,58 +1580,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.235250213358685</v>
+        <v>0.0070653521</v>
       </c>
       <c r="D18">
-        <v>2.191279241048219</v>
+        <v>0.02915984</v>
       </c>
       <c r="E18">
-        <v>0.235250213358685</v>
+        <v>0.0070653521</v>
       </c>
       <c r="F18">
-        <v>0.1847572682520548</v>
+        <v>0.0031791842</v>
       </c>
       <c r="G18">
-        <v>0.9055852634273972</v>
+        <v>0.56934437</v>
       </c>
       <c r="H18">
-        <v>0.9221334773438354</v>
+        <v>-0.0027114926</v>
       </c>
       <c r="I18">
-        <v>-0.0004979542895890413</v>
+        <v>0.0016817014</v>
       </c>
       <c r="J18">
-        <v>2.191279241048219</v>
+        <v>0.02915984</v>
       </c>
       <c r="K18">
-        <v>2.191279241048219</v>
+        <v>0.02915984</v>
       </c>
       <c r="L18">
-        <v>0.1847572682520548</v>
+        <v>0.0031791842</v>
       </c>
       <c r="M18">
-        <v>0.2100037408053699</v>
+        <v>0.00512226815</v>
       </c>
       <c r="N18">
-        <v>0.2100037408053699</v>
+        <v>0.00512226815</v>
       </c>
       <c r="O18">
-        <v>0.4473803196515251</v>
+        <v>0.002511014566666666</v>
       </c>
       <c r="P18">
-        <v>0.8704289075529862</v>
+        <v>0.0131347921</v>
       </c>
       <c r="Q18">
-        <v>0.8704289075529862</v>
+        <v>0.0131347921</v>
       </c>
       <c r="R18">
-        <v>1.200641490926794</v>
+        <v>0.017141054075</v>
       </c>
       <c r="S18">
-        <v>1.200641490926794</v>
+        <v>0.017141054075</v>
       </c>
       <c r="T18">
-        <v>0.7397512515234338</v>
+        <v>0.1012864925166667</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1636,58 +1642,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>3.408429246936841</v>
+        <v>0.0057885843</v>
       </c>
       <c r="D19">
-        <v>1.705130747645789</v>
+        <v>0.054346391</v>
       </c>
       <c r="E19">
-        <v>3.408429246936841</v>
+        <v>0.0057885843</v>
       </c>
       <c r="F19">
-        <v>1.705359604148421</v>
+        <v>0.8264006699999998</v>
       </c>
       <c r="G19">
-        <v>0.1417804401631579</v>
+        <v>0.29792267</v>
       </c>
       <c r="H19">
-        <v>0.03859684174157894</v>
+        <v>-0.0011213466</v>
       </c>
       <c r="I19">
-        <v>5.109571382874736</v>
+        <v>1.0528841</v>
       </c>
       <c r="J19">
-        <v>1.705130747645789</v>
+        <v>0.054346391</v>
       </c>
       <c r="K19">
-        <v>1.705130747645789</v>
+        <v>0.054346391</v>
       </c>
       <c r="L19">
-        <v>1.705359604148421</v>
+        <v>0.8264006699999998</v>
       </c>
       <c r="M19">
-        <v>2.556894425542631</v>
+        <v>0.4160946271499999</v>
       </c>
       <c r="N19">
-        <v>2.556894425542631</v>
+        <v>0.4160946271499999</v>
       </c>
       <c r="O19">
-        <v>1.717461897608947</v>
+        <v>0.2770226358999999</v>
       </c>
       <c r="P19">
-        <v>2.272973199577017</v>
+        <v>0.2955118817666666</v>
       </c>
       <c r="Q19">
-        <v>2.272973199577017</v>
+        <v>0.2955118817666666</v>
       </c>
       <c r="R19">
-        <v>2.13101258659421</v>
+        <v>0.235220509075</v>
       </c>
       <c r="S19">
-        <v>2.13101258659421</v>
+        <v>0.235220509075</v>
       </c>
       <c r="T19">
-        <v>2.018144710585088</v>
+        <v>0.37270351145</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1698,58 +1704,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.004291435083157893</v>
+        <v>0.235250213358685</v>
       </c>
       <c r="D20">
-        <v>2.504330765699474</v>
+        <v>2.191279241048219</v>
       </c>
       <c r="E20">
-        <v>0.004291435083157893</v>
+        <v>0.235250213358685</v>
       </c>
       <c r="F20">
-        <v>0.1505663360721052</v>
+        <v>0.1847572682520548</v>
       </c>
       <c r="G20">
-        <v>1.05467414155421</v>
+        <v>0.9055852634273972</v>
       </c>
       <c r="H20">
-        <v>1.446517446318526</v>
+        <v>0.9221334773438354</v>
       </c>
       <c r="I20">
-        <v>0.5312541787536842</v>
+        <v>-0.0004979542895890413</v>
       </c>
       <c r="J20">
-        <v>2.504330765699474</v>
+        <v>2.191279241048219</v>
       </c>
       <c r="K20">
-        <v>2.504330765699474</v>
+        <v>2.191279241048219</v>
       </c>
       <c r="L20">
-        <v>0.1505663360721052</v>
+        <v>0.1847572682520548</v>
       </c>
       <c r="M20">
-        <v>0.07742888557763156</v>
+        <v>0.2100037408053699</v>
       </c>
       <c r="N20">
-        <v>0.07742888557763156</v>
+        <v>0.2100037408053699</v>
       </c>
       <c r="O20">
-        <v>0.5337917391579298</v>
+        <v>0.4473803196515251</v>
       </c>
       <c r="P20">
-        <v>0.8863961789515789</v>
+        <v>0.8704289075529862</v>
       </c>
       <c r="Q20">
-        <v>0.8863961789515789</v>
+        <v>0.8704289075529862</v>
       </c>
       <c r="R20">
-        <v>1.290879825638553</v>
+        <v>1.200641490926794</v>
       </c>
       <c r="S20">
-        <v>1.290879825638553</v>
+        <v>1.200641490926794</v>
       </c>
       <c r="T20">
-        <v>0.9486057172468595</v>
+        <v>0.7397512515234338</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1760,58 +1766,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.139695438201505</v>
+        <v>3.408429246936841</v>
       </c>
       <c r="D21">
-        <v>-0.000422063954842297</v>
+        <v>1.705130747645789</v>
       </c>
       <c r="E21">
-        <v>1.139695438201505</v>
+        <v>3.408429246936841</v>
       </c>
       <c r="F21">
-        <v>1.453649013070499</v>
+        <v>1.705359604148421</v>
       </c>
       <c r="G21">
-        <v>0.5717459883016168</v>
+        <v>0.1417804401631579</v>
       </c>
       <c r="H21">
-        <v>1.70883991090389</v>
+        <v>0.03859684174157894</v>
       </c>
       <c r="I21">
-        <v>1.141189664377114</v>
+        <v>5.109571382874736</v>
       </c>
       <c r="J21">
-        <v>-0.000422063954842297</v>
+        <v>1.705130747645789</v>
       </c>
       <c r="K21">
-        <v>-0.000422063954842297</v>
+        <v>1.705130747645789</v>
       </c>
       <c r="L21">
-        <v>1.453649013070499</v>
+        <v>1.705359604148421</v>
       </c>
       <c r="M21">
-        <v>1.296672225636002</v>
+        <v>2.556894425542631</v>
       </c>
       <c r="N21">
-        <v>1.296672225636002</v>
+        <v>2.556894425542631</v>
       </c>
       <c r="O21">
-        <v>1.434061454058631</v>
+        <v>1.717461897608947</v>
       </c>
       <c r="P21">
-        <v>0.864307462439054</v>
+        <v>2.272973199577017</v>
       </c>
       <c r="Q21">
-        <v>0.864307462439054</v>
+        <v>2.272973199577017</v>
       </c>
       <c r="R21">
-        <v>0.64812508084058</v>
+        <v>2.13101258659421</v>
       </c>
       <c r="S21">
-        <v>0.64812508084058</v>
+        <v>2.13101258659421</v>
       </c>
       <c r="T21">
-        <v>1.002449658483297</v>
+        <v>2.018144710585088</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1822,58 +1828,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.7216725738718084</v>
+        <v>0.004291435083157893</v>
       </c>
       <c r="D22">
-        <v>0.8100617453708652</v>
+        <v>2.504330765699474</v>
       </c>
       <c r="E22">
-        <v>0.7216725738718084</v>
+        <v>0.004291435083157893</v>
       </c>
       <c r="F22">
-        <v>0.8021127364917493</v>
+        <v>0.1505663360721052</v>
       </c>
       <c r="G22">
-        <v>1.304452449442555</v>
+        <v>1.05467414155421</v>
       </c>
       <c r="H22">
-        <v>0.1598485097874724</v>
+        <v>1.446517446318526</v>
       </c>
       <c r="I22">
-        <v>0.1338779895585501</v>
+        <v>0.5312541787536842</v>
       </c>
       <c r="J22">
-        <v>0.8100617453708652</v>
+        <v>2.504330765699474</v>
       </c>
       <c r="K22">
-        <v>0.8100617453708652</v>
+        <v>2.504330765699474</v>
       </c>
       <c r="L22">
-        <v>0.8021127364917493</v>
+        <v>0.1505663360721052</v>
       </c>
       <c r="M22">
-        <v>0.7618926551817788</v>
+        <v>0.07742888557763156</v>
       </c>
       <c r="N22">
-        <v>0.7618926551817788</v>
+        <v>0.07742888557763156</v>
       </c>
       <c r="O22">
-        <v>0.5612112733836767</v>
+        <v>0.5337917391579298</v>
       </c>
       <c r="P22">
-        <v>0.7779490185781409</v>
+        <v>0.8863961789515789</v>
       </c>
       <c r="Q22">
-        <v>0.7779490185781409</v>
+        <v>0.8863961789515789</v>
       </c>
       <c r="R22">
-        <v>0.785977200276322</v>
+        <v>1.290879825638553</v>
       </c>
       <c r="S22">
-        <v>0.785977200276322</v>
+        <v>1.290879825638553</v>
       </c>
       <c r="T22">
-        <v>0.6553376674205</v>
+        <v>0.9486057172468595</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1884,58 +1890,58 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.02816246208286063</v>
+        <v>1.139695438201505</v>
       </c>
       <c r="D23">
-        <v>1.947503822981913</v>
+        <v>-0.000422063954842297</v>
       </c>
       <c r="E23">
-        <v>0.02816246208286063</v>
+        <v>1.139695438201505</v>
       </c>
       <c r="F23">
-        <v>0.8936585146339781</v>
+        <v>1.453649013070499</v>
       </c>
       <c r="G23">
-        <v>1.444407193392876</v>
+        <v>0.5717459883016168</v>
       </c>
       <c r="H23">
-        <v>1.088287096789949</v>
+        <v>1.70883991090389</v>
       </c>
       <c r="I23">
-        <v>0.008384910052905486</v>
+        <v>1.141189664377114</v>
       </c>
       <c r="J23">
-        <v>1.947503822981913</v>
+        <v>-0.000422063954842297</v>
       </c>
       <c r="K23">
-        <v>1.947503822981913</v>
+        <v>-0.000422063954842297</v>
       </c>
       <c r="L23">
-        <v>0.8936585146339781</v>
+        <v>1.453649013070499</v>
       </c>
       <c r="M23">
-        <v>0.4609104883584194</v>
+        <v>1.296672225636002</v>
       </c>
       <c r="N23">
-        <v>0.4609104883584194</v>
+        <v>1.296672225636002</v>
       </c>
       <c r="O23">
-        <v>0.6700360245022626</v>
+        <v>1.434061454058631</v>
       </c>
       <c r="P23">
-        <v>0.956441599899584</v>
+        <v>0.864307462439054</v>
       </c>
       <c r="Q23">
-        <v>0.956441599899584</v>
+        <v>0.864307462439054</v>
       </c>
       <c r="R23">
-        <v>1.204207155670166</v>
+        <v>0.64812508084058</v>
       </c>
       <c r="S23">
-        <v>1.204207155670166</v>
+        <v>0.64812508084058</v>
       </c>
       <c r="T23">
-        <v>0.9017339999890804</v>
+        <v>1.002449658483297</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1946,58 +1952,58 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.978384880534225</v>
+        <v>0.7216725738718084</v>
       </c>
       <c r="D24">
-        <v>0.8299688759072553</v>
+        <v>0.8100617453708652</v>
       </c>
       <c r="E24">
-        <v>1.978384880534225</v>
+        <v>0.7216725738718084</v>
       </c>
       <c r="F24">
-        <v>1.050809254152312</v>
+        <v>0.8021127364917493</v>
       </c>
       <c r="G24">
-        <v>1.105508623078699</v>
+        <v>1.304452449442555</v>
       </c>
       <c r="H24">
-        <v>1.324511104887578</v>
+        <v>0.1598485097874724</v>
       </c>
       <c r="I24">
-        <v>1.97000817876325</v>
+        <v>0.1338779895585501</v>
       </c>
       <c r="J24">
-        <v>0.8299688759072553</v>
+        <v>0.8100617453708652</v>
       </c>
       <c r="K24">
-        <v>0.8299688759072553</v>
+        <v>0.8100617453708652</v>
       </c>
       <c r="L24">
-        <v>1.050809254152312</v>
+        <v>0.8021127364917493</v>
       </c>
       <c r="M24">
-        <v>1.514597067343268</v>
+        <v>0.7618926551817788</v>
       </c>
       <c r="N24">
-        <v>1.514597067343268</v>
+        <v>0.7618926551817788</v>
       </c>
       <c r="O24">
-        <v>1.451235079858038</v>
+        <v>0.5612112733836767</v>
       </c>
       <c r="P24">
-        <v>1.286387670197931</v>
+        <v>0.7779490185781409</v>
       </c>
       <c r="Q24">
-        <v>1.286387670197931</v>
+        <v>0.7779490185781409</v>
       </c>
       <c r="R24">
-        <v>1.172282971625262</v>
+        <v>0.785977200276322</v>
       </c>
       <c r="S24">
-        <v>1.172282971625262</v>
+        <v>0.785977200276322</v>
       </c>
       <c r="T24">
-        <v>1.376531819553886</v>
+        <v>0.6553376674205</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2008,58 +2014,58 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>7.531923673068421E-05</v>
+        <v>0.02816246208286063</v>
       </c>
       <c r="D25">
-        <v>1.824720370689372</v>
+        <v>1.947503822981913</v>
       </c>
       <c r="E25">
-        <v>7.531923673068421E-05</v>
+        <v>0.02816246208286063</v>
       </c>
       <c r="F25">
-        <v>1.980624835801773</v>
+        <v>0.8936585146339781</v>
       </c>
       <c r="G25">
-        <v>0.4351863019069599</v>
+        <v>1.444407193392876</v>
       </c>
       <c r="H25">
-        <v>0.1812719216706417</v>
+        <v>1.088287096789949</v>
       </c>
       <c r="I25">
-        <v>0.3872119693019184</v>
+        <v>0.008384910052905486</v>
       </c>
       <c r="J25">
-        <v>1.824720370689372</v>
+        <v>1.947503822981913</v>
       </c>
       <c r="K25">
-        <v>1.824720370689372</v>
+        <v>1.947503822981913</v>
       </c>
       <c r="L25">
-        <v>1.980624835801773</v>
+        <v>0.8936585146339781</v>
       </c>
       <c r="M25">
-        <v>0.990350077519252</v>
+        <v>0.4609104883584194</v>
       </c>
       <c r="N25">
-        <v>0.990350077519252</v>
+        <v>0.4609104883584194</v>
       </c>
       <c r="O25">
-        <v>0.7206573589030486</v>
+        <v>0.6700360245022626</v>
       </c>
       <c r="P25">
-        <v>1.268473508575958</v>
+        <v>0.956441599899584</v>
       </c>
       <c r="Q25">
-        <v>1.268473508575958</v>
+        <v>0.956441599899584</v>
       </c>
       <c r="R25">
-        <v>1.407535224104312</v>
+        <v>1.204207155670166</v>
       </c>
       <c r="S25">
-        <v>1.407535224104312</v>
+        <v>1.204207155670166</v>
       </c>
       <c r="T25">
-        <v>0.8015151197678992</v>
+        <v>0.9017339999890804</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2070,58 +2076,58 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.06399682317877232</v>
+        <v>1.978384880534225</v>
       </c>
       <c r="D26">
-        <v>0.3705016976410923</v>
+        <v>0.8299688759072553</v>
       </c>
       <c r="E26">
-        <v>0.06399682317877232</v>
+        <v>1.978384880534225</v>
       </c>
       <c r="F26">
-        <v>0.8748358057067064</v>
+        <v>1.050809254152312</v>
       </c>
       <c r="G26">
-        <v>1.051517784166006</v>
+        <v>1.105508623078699</v>
       </c>
       <c r="H26">
-        <v>0.9042881759953366</v>
+        <v>1.324511104887578</v>
       </c>
       <c r="I26">
-        <v>2.350649568457551</v>
+        <v>1.97000817876325</v>
       </c>
       <c r="J26">
-        <v>0.3705016976410923</v>
+        <v>0.8299688759072553</v>
       </c>
       <c r="K26">
-        <v>0.3705016976410923</v>
+        <v>0.8299688759072553</v>
       </c>
       <c r="L26">
-        <v>0.8748358057067064</v>
+        <v>1.050809254152312</v>
       </c>
       <c r="M26">
-        <v>0.4694163144427393</v>
+        <v>1.514597067343268</v>
       </c>
       <c r="N26">
-        <v>0.4694163144427393</v>
+        <v>1.514597067343268</v>
       </c>
       <c r="O26">
-        <v>0.6143736016269384</v>
+        <v>1.451235079858038</v>
       </c>
       <c r="P26">
-        <v>0.436444775508857</v>
+        <v>1.286387670197931</v>
       </c>
       <c r="Q26">
-        <v>0.436444775508857</v>
+        <v>1.286387670197931</v>
       </c>
       <c r="R26">
-        <v>0.4199590060419158</v>
+        <v>1.172282971625262</v>
       </c>
       <c r="S26">
-        <v>0.4199590060419158</v>
+        <v>1.172282971625262</v>
       </c>
       <c r="T26">
-        <v>0.9359649758575773</v>
+        <v>1.376531819553886</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2132,58 +2138,58 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.8743220210203884</v>
+        <v>7.531923673068421E-05</v>
       </c>
       <c r="D27">
-        <v>1.413990432140681</v>
+        <v>1.824720370689372</v>
       </c>
       <c r="E27">
-        <v>0.8743220210203884</v>
+        <v>7.531923673068421E-05</v>
       </c>
       <c r="F27">
-        <v>0.06410497021221635</v>
+        <v>1.980624835801773</v>
       </c>
       <c r="G27">
-        <v>0.8389915028949875</v>
+        <v>0.4351863019069599</v>
       </c>
       <c r="H27">
-        <v>0.2416151416335802</v>
+        <v>0.1812719216706417</v>
       </c>
       <c r="I27">
-        <v>3.088210952728831</v>
+        <v>0.3872119693019184</v>
       </c>
       <c r="J27">
-        <v>1.413990432140681</v>
+        <v>1.824720370689372</v>
       </c>
       <c r="K27">
-        <v>1.413990432140681</v>
+        <v>1.824720370689372</v>
       </c>
       <c r="L27">
-        <v>0.06410497021221635</v>
+        <v>1.980624835801773</v>
       </c>
       <c r="M27">
-        <v>0.4692134956163024</v>
+        <v>0.990350077519252</v>
       </c>
       <c r="N27">
-        <v>0.4692134956163024</v>
+        <v>0.990350077519252</v>
       </c>
       <c r="O27">
-        <v>0.3933473776220617</v>
+        <v>0.7206573589030486</v>
       </c>
       <c r="P27">
-        <v>0.7841391411244284</v>
+        <v>1.268473508575958</v>
       </c>
       <c r="Q27">
-        <v>0.7841391411244284</v>
+        <v>1.268473508575958</v>
       </c>
       <c r="R27">
-        <v>0.9416019638784915</v>
+        <v>1.407535224104312</v>
       </c>
       <c r="S27">
-        <v>0.9416019638784915</v>
+        <v>1.407535224104312</v>
       </c>
       <c r="T27">
-        <v>1.086872503438447</v>
+        <v>0.8015151197678992</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2194,58 +2200,58 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.4866302396892118</v>
+        <v>0.06399682317877232</v>
       </c>
       <c r="D28">
-        <v>0.2830729848835137</v>
+        <v>0.3705016976410923</v>
       </c>
       <c r="E28">
-        <v>0.4866302396892118</v>
+        <v>0.06399682317877232</v>
       </c>
       <c r="F28">
-        <v>0.8620429851447388</v>
+        <v>0.8748358057067064</v>
       </c>
       <c r="G28">
-        <v>1.320202228004525</v>
+        <v>1.051517784166006</v>
       </c>
       <c r="H28">
-        <v>1.115298371174898</v>
+        <v>0.9042881759953366</v>
       </c>
       <c r="I28">
-        <v>0.1743138411369667</v>
+        <v>2.350649568457551</v>
       </c>
       <c r="J28">
-        <v>0.2830729848835137</v>
+        <v>0.3705016976410923</v>
       </c>
       <c r="K28">
-        <v>0.2830729848835137</v>
+        <v>0.3705016976410923</v>
       </c>
       <c r="L28">
-        <v>0.8620429851447388</v>
+        <v>0.8748358057067064</v>
       </c>
       <c r="M28">
-        <v>0.6743366124169753</v>
+        <v>0.4694163144427393</v>
       </c>
       <c r="N28">
-        <v>0.6743366124169753</v>
+        <v>0.4694163144427393</v>
       </c>
       <c r="O28">
-        <v>0.821323865336283</v>
+        <v>0.6143736016269384</v>
       </c>
       <c r="P28">
-        <v>0.5439154032391548</v>
+        <v>0.436444775508857</v>
       </c>
       <c r="Q28">
-        <v>0.5439154032391548</v>
+        <v>0.436444775508857</v>
       </c>
       <c r="R28">
-        <v>0.4787047986502445</v>
+        <v>0.4199590060419158</v>
       </c>
       <c r="S28">
-        <v>0.4787047986502445</v>
+        <v>0.4199590060419158</v>
       </c>
       <c r="T28">
-        <v>0.7069267750056424</v>
+        <v>0.9359649758575773</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2256,57 +2262,181 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>0.8743220210203884</v>
+      </c>
+      <c r="D29">
+        <v>1.413990432140681</v>
+      </c>
+      <c r="E29">
+        <v>0.8743220210203884</v>
+      </c>
+      <c r="F29">
+        <v>0.06410497021221635</v>
+      </c>
+      <c r="G29">
+        <v>0.8389915028949875</v>
+      </c>
+      <c r="H29">
+        <v>0.2416151416335802</v>
+      </c>
+      <c r="I29">
+        <v>3.088210952728831</v>
+      </c>
+      <c r="J29">
+        <v>1.413990432140681</v>
+      </c>
+      <c r="K29">
+        <v>1.413990432140681</v>
+      </c>
+      <c r="L29">
+        <v>0.06410497021221635</v>
+      </c>
+      <c r="M29">
+        <v>0.4692134956163024</v>
+      </c>
+      <c r="N29">
+        <v>0.4692134956163024</v>
+      </c>
+      <c r="O29">
+        <v>0.3933473776220617</v>
+      </c>
+      <c r="P29">
+        <v>0.7841391411244284</v>
+      </c>
+      <c r="Q29">
+        <v>0.7841391411244284</v>
+      </c>
+      <c r="R29">
+        <v>0.9416019638784915</v>
+      </c>
+      <c r="S29">
+        <v>0.9416019638784915</v>
+      </c>
+      <c r="T29">
+        <v>1.086872503438447</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.4866302396892118</v>
+      </c>
+      <c r="D30">
+        <v>0.2830729848835137</v>
+      </c>
+      <c r="E30">
+        <v>0.4866302396892118</v>
+      </c>
+      <c r="F30">
+        <v>0.8620429851447388</v>
+      </c>
+      <c r="G30">
+        <v>1.320202228004525</v>
+      </c>
+      <c r="H30">
+        <v>1.115298371174898</v>
+      </c>
+      <c r="I30">
+        <v>0.1743138411369667</v>
+      </c>
+      <c r="J30">
+        <v>0.2830729848835137</v>
+      </c>
+      <c r="K30">
+        <v>0.2830729848835137</v>
+      </c>
+      <c r="L30">
+        <v>0.8620429851447388</v>
+      </c>
+      <c r="M30">
+        <v>0.6743366124169753</v>
+      </c>
+      <c r="N30">
+        <v>0.6743366124169753</v>
+      </c>
+      <c r="O30">
+        <v>0.821323865336283</v>
+      </c>
+      <c r="P30">
+        <v>0.5439154032391548</v>
+      </c>
+      <c r="Q30">
+        <v>0.5439154032391548</v>
+      </c>
+      <c r="R30">
+        <v>0.4787047986502445</v>
+      </c>
+      <c r="S30">
+        <v>0.4787047986502445</v>
+      </c>
+      <c r="T30">
+        <v>0.7069267750056424</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>0.000651416482881435</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>0.007560328696085989</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>0.000651416482881435</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>1.386794834186211</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>1.379426734386856</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>1.573025304422839</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>0.05450384123075686</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>0.007560328696085989</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>0.007560328696085989</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>1.386794834186211</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>0.6937231253345461</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>0.6937231253345461</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>0.9868238516973104</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>0.465002193121726</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>0.465002193121726</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>0.350641727015316</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>0.350641727015316</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>0.7336604099009384</v>
       </c>
     </row>
